--- a/GW_seaweed_seasonality_transect_data1.xlsx
+++ b/GW_seaweed_seasonality_transect_data1.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{38EC0476-1FF6-4D41-9D9E-0D99C2282F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5902DE83-3E1C-4EBA-A862-CA6C975BE036}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="8_{38EC0476-1FF6-4D41-9D9E-0D99C2282F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E49D589-CA14-46C2-9606-ACFA27C12C6F}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$N$117</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -566,9 +569,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -927,7 +931,8 @@
   <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,51 +941,52 @@
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="3" width="24.88671875" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2218,7 +2224,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>44506</v>
+        <v>44505</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -2235,7 +2241,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>44507</v>
+        <v>44505</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -2255,7 +2261,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>44508</v>
+        <v>44505</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2269,7 +2275,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>44509</v>
+        <v>44505</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2286,7 +2292,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>44510</v>
+        <v>44505</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -2306,7 +2312,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>44511</v>
+        <v>44505</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -2320,7 +2326,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44512</v>
+        <v>44505</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -2340,7 +2346,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>44513</v>
+        <v>44505</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -2354,7 +2360,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>44514</v>
+        <v>44505</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -2377,7 +2383,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>44515</v>
+        <v>44505</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -2397,7 +2403,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>44516</v>
+        <v>44505</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -2414,7 +2420,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44517</v>
+        <v>44505</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -2434,7 +2440,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>44518</v>
+        <v>44505</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -2448,7 +2454,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>44519</v>
+        <v>44505</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -2465,7 +2471,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>44520</v>
+        <v>44505</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -2488,7 +2494,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>44521</v>
+        <v>44505</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -2505,7 +2511,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>44522</v>
+        <v>44505</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -2531,7 +2537,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>44523</v>
+        <v>44505</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -2551,7 +2557,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>44524</v>
+        <v>44505</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -2565,7 +2571,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>44525</v>
+        <v>44505</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -2579,7 +2585,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>44526</v>
+        <v>44505</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -2599,7 +2605,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>44527</v>
+        <v>44505</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -2613,7 +2619,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>44528</v>
+        <v>44505</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -2627,7 +2633,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>44529</v>
+        <v>44505</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -2644,7 +2650,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>44530</v>
+        <v>44505</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -2661,7 +2667,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>44531</v>
+        <v>44505</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -2678,7 +2684,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>44532</v>
+        <v>44505</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -2695,7 +2701,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>44533</v>
+        <v>44505</v>
       </c>
       <c r="B96">
         <v>4</v>
@@ -2715,7 +2721,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>44534</v>
+        <v>44505</v>
       </c>
       <c r="B97">
         <v>4</v>
@@ -2735,7 +2741,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>44535</v>
+        <v>44505</v>
       </c>
       <c r="B98">
         <v>4</v>
@@ -2755,7 +2761,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>44536</v>
+        <v>44505</v>
       </c>
       <c r="B99">
         <v>4</v>
@@ -2775,7 +2781,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>44537</v>
+        <v>44505</v>
       </c>
       <c r="B100">
         <v>4</v>
@@ -2789,7 +2795,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>44538</v>
+        <v>44505</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -2803,7 +2809,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>44539</v>
+        <v>44505</v>
       </c>
       <c r="B102">
         <v>4</v>
@@ -2823,7 +2829,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>44540</v>
+        <v>44505</v>
       </c>
       <c r="B103">
         <v>4</v>
@@ -2849,7 +2855,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>44541</v>
+        <v>44505</v>
       </c>
       <c r="B104">
         <v>4</v>
@@ -2869,7 +2875,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>44542</v>
+        <v>44505</v>
       </c>
       <c r="B105">
         <v>4</v>
@@ -2895,7 +2901,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>44543</v>
+        <v>44505</v>
       </c>
       <c r="B106">
         <v>4</v>
@@ -2915,7 +2921,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>44544</v>
+        <v>44505</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -2950,7 +2956,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>44545</v>
+        <v>44505</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -2970,7 +2976,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>44546</v>
+        <v>44505</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -2993,7 +2999,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>44547</v>
+        <v>44505</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -3013,7 +3019,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>44548</v>
+        <v>44505</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -3033,7 +3039,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>44549</v>
+        <v>44505</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -3053,7 +3059,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>44550</v>
+        <v>44505</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -3070,7 +3076,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>44551</v>
+        <v>44505</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -3090,7 +3096,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>44552</v>
+        <v>44505</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -3107,7 +3113,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>44553</v>
+        <v>44505</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -3136,7 +3142,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>44554</v>
+        <v>44505</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -3164,6 +3170,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GW_seaweed_seasonality_transect_data1.xlsx
+++ b/GW_seaweed_seasonality_transect_data1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="8_{38EC0476-1FF6-4D41-9D9E-0D99C2282F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E49D589-CA14-46C2-9606-ACFA27C12C6F}"/>
+  <xr:revisionPtr revIDLastSave="797" documentId="8_{38EC0476-1FF6-4D41-9D9E-0D99C2282F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C07595FE-0E47-40F3-8396-D938B4A1889F}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$N$117</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="32">
   <si>
     <t>sampling_date</t>
   </si>
@@ -76,6 +78,39 @@
     <t>sarcodiotheca_gaudichaudii</t>
   </si>
   <si>
+    <t>crustose_coralline</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>saccharina_latissima</t>
+  </si>
+  <si>
+    <t>melanosiphon_intestinalis</t>
+  </si>
+  <si>
+    <t>hildenbrandia_sp</t>
+  </si>
+  <si>
+    <t>petalonia_sp</t>
+  </si>
+  <si>
+    <t>odonthalia_sp</t>
+  </si>
+  <si>
+    <t>polysiphonia_sp</t>
+  </si>
+  <si>
+    <t>ulva_sp</t>
+  </si>
+  <si>
+    <t>pyropia_sp</t>
+  </si>
+  <si>
+    <t>laminariales_sp</t>
+  </si>
+  <si>
     <t>fucus_distichus</t>
   </si>
   <si>
@@ -87,12 +122,21 @@
   <si>
     <t>ulva_fenestrata</t>
   </si>
+  <si>
+    <t>&lt;1</t>
+  </si>
+  <si>
+    <t>ulva fenestrata</t>
+  </si>
+  <si>
+    <t>mastocarous_sp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +270,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -569,10 +619,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -928,25 +979,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:Y264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J265" sqref="J265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -989,8 +1040,41 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15">
       <c r="A2" s="1">
         <v>44444</v>
       </c>
@@ -1001,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -1010,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="15">
       <c r="A3" s="1">
         <v>44444</v>
       </c>
@@ -1021,10 +1105,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15">
       <c r="A4" s="1">
         <v>44444</v>
       </c>
@@ -1035,10 +1119,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15">
       <c r="A5" s="1">
         <v>44444</v>
       </c>
@@ -1049,13 +1133,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="15">
       <c r="A6" s="1">
         <v>44444</v>
       </c>
@@ -1066,10 +1150,10 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15">
       <c r="A7" s="1">
         <v>44444</v>
       </c>
@@ -1080,10 +1164,10 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15">
       <c r="A8" s="1">
         <v>44444</v>
       </c>
@@ -1094,7 +1178,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1106,7 +1190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="15">
       <c r="A9" s="1">
         <v>44444</v>
       </c>
@@ -1117,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -1126,7 +1210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="15">
       <c r="A10" s="1">
         <v>44444</v>
       </c>
@@ -1137,13 +1221,13 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="15">
       <c r="A11" s="1">
         <v>44444</v>
       </c>
@@ -1154,13 +1238,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="15">
       <c r="A12" s="1">
         <v>44444</v>
       </c>
@@ -1171,7 +1255,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1180,7 +1264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="15">
       <c r="A13" s="1">
         <v>44444</v>
       </c>
@@ -1191,7 +1275,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1200,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="15">
       <c r="A14" s="1">
         <v>44444</v>
       </c>
@@ -1211,7 +1295,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1220,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="15">
       <c r="A15" s="1">
         <v>44444</v>
       </c>
@@ -1231,7 +1315,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1240,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="15">
       <c r="A16" s="1">
         <v>44444</v>
       </c>
@@ -1251,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>70</v>
@@ -1260,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="1">
         <v>44444</v>
       </c>
@@ -1271,13 +1355,13 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15">
       <c r="A18" s="1">
         <v>44444</v>
       </c>
@@ -1288,7 +1372,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1297,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="1">
         <v>44444</v>
       </c>
@@ -1308,13 +1392,13 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="1">
         <v>44444</v>
       </c>
@@ -1325,7 +1409,7 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1334,7 +1418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" s="1">
         <v>44444</v>
       </c>
@@ -1345,13 +1429,13 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15">
       <c r="A22" s="1">
         <v>44444</v>
       </c>
@@ -1362,13 +1446,13 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="1">
         <v>44444</v>
       </c>
@@ -1379,10 +1463,10 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="1">
         <v>44444</v>
       </c>
@@ -1393,13 +1477,13 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15">
       <c r="A25" s="1">
         <v>44444</v>
       </c>
@@ -1410,13 +1494,13 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G25">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15">
       <c r="A26" s="1">
         <v>44444</v>
       </c>
@@ -1427,13 +1511,13 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G26">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15">
       <c r="A27" s="1">
         <v>44444</v>
       </c>
@@ -1444,13 +1528,13 @@
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15">
       <c r="A28" s="1">
         <v>44444</v>
       </c>
@@ -1461,13 +1545,13 @@
         <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15">
       <c r="A29" s="1">
         <v>44444</v>
       </c>
@@ -1478,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>70</v>
@@ -1487,7 +1571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15">
       <c r="A30" s="1">
         <v>44444</v>
       </c>
@@ -1498,13 +1582,13 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15">
       <c r="A31" s="1">
         <v>44444</v>
       </c>
@@ -1515,10 +1599,10 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15">
       <c r="A32" s="1">
         <v>44444</v>
       </c>
@@ -1529,7 +1613,7 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1538,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15">
       <c r="A33" s="1">
         <v>44444</v>
       </c>
@@ -1549,7 +1633,7 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1558,7 +1642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15">
       <c r="A34" s="1">
         <v>44444</v>
       </c>
@@ -1569,7 +1653,7 @@
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1578,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15">
       <c r="A35" s="1">
         <v>44444</v>
       </c>
@@ -1589,7 +1673,7 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1598,7 +1682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15">
       <c r="A36" s="1">
         <v>44444</v>
       </c>
@@ -1609,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -1618,7 +1702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="1">
         <v>44444</v>
       </c>
@@ -1629,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>25</v>
@@ -1638,7 +1722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15">
       <c r="A38" s="1">
         <v>44444</v>
       </c>
@@ -1649,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -1658,7 +1742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15">
       <c r="A39" s="1">
         <v>44444</v>
       </c>
@@ -1669,7 +1753,7 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1678,7 +1762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15">
       <c r="A40" s="1">
         <v>44444</v>
       </c>
@@ -1689,7 +1773,7 @@
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1698,7 +1782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15">
       <c r="A41" s="1">
         <v>44444</v>
       </c>
@@ -1709,13 +1793,13 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15">
       <c r="A42" s="1">
         <v>44444</v>
       </c>
@@ -1726,13 +1810,13 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15">
       <c r="A43" s="1">
         <v>44473</v>
       </c>
@@ -1743,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <v>30</v>
@@ -1752,7 +1836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15">
       <c r="A44" s="1">
         <v>44473</v>
       </c>
@@ -1763,7 +1847,7 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -1772,7 +1856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15">
       <c r="A45" s="1">
         <v>44473</v>
       </c>
@@ -1783,10 +1867,10 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15">
       <c r="A46" s="1">
         <v>44473</v>
       </c>
@@ -1797,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -1806,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15">
       <c r="A47" s="1">
         <v>44473</v>
       </c>
@@ -1817,13 +1901,13 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15">
       <c r="A48" s="1">
         <v>44473</v>
       </c>
@@ -1834,10 +1918,10 @@
         <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15">
       <c r="A49" s="1">
         <v>44473</v>
       </c>
@@ -1848,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>40</v>
@@ -1857,7 +1941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15">
       <c r="A50" s="1">
         <v>44473</v>
       </c>
@@ -1868,13 +1952,13 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15">
       <c r="A51" s="1">
         <v>44473</v>
       </c>
@@ -1885,7 +1969,7 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E51">
         <v>20</v>
@@ -1894,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15">
       <c r="A52" s="1">
         <v>44473</v>
       </c>
@@ -1905,7 +1989,7 @@
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -1914,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15">
       <c r="A53" s="1">
         <v>44473</v>
       </c>
@@ -1925,13 +2009,13 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15">
       <c r="A54" s="1">
         <v>44473</v>
       </c>
@@ -1942,7 +2026,7 @@
         <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E54">
         <v>5</v>
@@ -1951,7 +2035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15">
       <c r="A55" s="1">
         <v>44473</v>
       </c>
@@ -1962,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E55">
         <v>40</v>
@@ -1971,7 +2055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15">
       <c r="A56" s="1">
         <v>44473</v>
       </c>
@@ -1982,10 +2066,10 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15">
       <c r="A57" s="1">
         <v>44473</v>
       </c>
@@ -1996,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2005,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15">
       <c r="A58" s="1">
         <v>44473</v>
       </c>
@@ -2016,7 +2100,7 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2025,7 +2109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15">
       <c r="A59" s="1">
         <v>44473</v>
       </c>
@@ -2036,7 +2120,7 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E59">
         <v>5</v>
@@ -2045,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15">
       <c r="A60" s="1">
         <v>44473</v>
       </c>
@@ -2056,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E60">
         <v>70</v>
@@ -2065,7 +2149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="15">
       <c r="A61" s="1">
         <v>44473</v>
       </c>
@@ -2076,7 +2160,7 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2085,7 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15">
       <c r="A62" s="1">
         <v>44473</v>
       </c>
@@ -2096,13 +2180,13 @@
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="15">
       <c r="A63" s="1">
         <v>44473</v>
       </c>
@@ -2113,10 +2197,10 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15">
       <c r="A64" s="1">
         <v>44473</v>
       </c>
@@ -2127,7 +2211,7 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E64">
         <v>10</v>
@@ -2139,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="15">
       <c r="A65" s="1">
         <v>44473</v>
       </c>
@@ -2150,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -2162,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15">
       <c r="A66" s="1">
         <v>44473</v>
       </c>
@@ -2173,7 +2257,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E66">
         <v>30</v>
@@ -2182,7 +2266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="15">
       <c r="A67" s="1">
         <v>44473</v>
       </c>
@@ -2193,7 +2277,7 @@
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E67">
         <v>10</v>
@@ -2202,7 +2286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="15">
       <c r="A68" s="1">
         <v>44473</v>
       </c>
@@ -2213,7 +2297,7 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E68">
         <v>5</v>
@@ -2222,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="15">
       <c r="A69" s="1">
         <v>44505</v>
       </c>
@@ -2239,7 +2323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="15">
       <c r="A70" s="1">
         <v>44505</v>
       </c>
@@ -2250,7 +2334,7 @@
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -2259,7 +2343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="15">
       <c r="A71" s="1">
         <v>44505</v>
       </c>
@@ -2270,10 +2354,10 @@
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15">
       <c r="A72" s="1">
         <v>44505</v>
       </c>
@@ -2290,7 +2374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="15">
       <c r="A73" s="1">
         <v>44505</v>
       </c>
@@ -2301,7 +2385,7 @@
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -2310,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="15">
       <c r="A74" s="1">
         <v>44505</v>
       </c>
@@ -2321,10 +2405,10 @@
         <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15">
       <c r="A75" s="1">
         <v>44505</v>
       </c>
@@ -2335,7 +2419,7 @@
         <v>30</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -2344,7 +2428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="15">
       <c r="A76" s="1">
         <v>44505</v>
       </c>
@@ -2355,10 +2439,10 @@
         <v>35</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15">
       <c r="A77" s="1">
         <v>44505</v>
       </c>
@@ -2369,7 +2453,7 @@
         <v>40</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2381,7 +2465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="15">
       <c r="A78" s="1">
         <v>44505</v>
       </c>
@@ -2392,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E78">
         <v>40</v>
@@ -2401,7 +2485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="15">
       <c r="A79" s="1">
         <v>44505</v>
       </c>
@@ -2412,13 +2496,13 @@
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="15">
       <c r="A80" s="1">
         <v>44505</v>
       </c>
@@ -2429,7 +2513,7 @@
         <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E80">
         <v>15</v>
@@ -2438,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="1">
         <v>44505</v>
       </c>
@@ -2449,10 +2533,10 @@
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="1">
         <v>44505</v>
       </c>
@@ -2463,13 +2547,13 @@
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="1">
         <v>44505</v>
       </c>
@@ -2480,7 +2564,7 @@
         <v>25</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -2492,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="1">
         <v>44505</v>
       </c>
@@ -2509,7 +2593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="1">
         <v>44505</v>
       </c>
@@ -2520,7 +2604,7 @@
         <v>35</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E85">
         <v>20</v>
@@ -2535,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="1">
         <v>44505</v>
       </c>
@@ -2546,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E86">
         <v>35</v>
@@ -2555,7 +2639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="1">
         <v>44505</v>
       </c>
@@ -2566,10 +2650,10 @@
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="1">
         <v>44505</v>
       </c>
@@ -2580,10 +2664,10 @@
         <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="1">
         <v>44505</v>
       </c>
@@ -2594,7 +2678,7 @@
         <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -2603,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="1">
         <v>44505</v>
       </c>
@@ -2614,10 +2698,10 @@
         <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="1">
         <v>44505</v>
       </c>
@@ -2628,10 +2712,10 @@
         <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="1">
         <v>44505</v>
       </c>
@@ -2648,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="1">
         <v>44505</v>
       </c>
@@ -2659,13 +2743,13 @@
         <v>35</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="1">
         <v>44505</v>
       </c>
@@ -2676,13 +2760,13 @@
         <v>40</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F94">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="1">
         <v>44505</v>
       </c>
@@ -2693,13 +2777,13 @@
         <v>45</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="1">
         <v>44505</v>
       </c>
@@ -2710,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E96">
         <v>50</v>
@@ -2719,7 +2803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="15">
       <c r="A97" s="1">
         <v>44505</v>
       </c>
@@ -2730,7 +2814,7 @@
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -2739,7 +2823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="15">
       <c r="A98" s="1">
         <v>44505</v>
       </c>
@@ -2750,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -2759,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="15">
       <c r="A99" s="1">
         <v>44505</v>
       </c>
@@ -2770,7 +2854,7 @@
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -2779,7 +2863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="15">
       <c r="A100" s="1">
         <v>44505</v>
       </c>
@@ -2790,10 +2874,10 @@
         <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15">
       <c r="A101" s="1">
         <v>44505</v>
       </c>
@@ -2804,10 +2888,10 @@
         <v>25</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15">
       <c r="A102" s="1">
         <v>44505</v>
       </c>
@@ -2818,7 +2902,7 @@
         <v>30</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -2827,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="15">
       <c r="A103" s="1">
         <v>44505</v>
       </c>
@@ -2838,7 +2922,7 @@
         <v>35</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -2853,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="15">
       <c r="A104" s="1">
         <v>44505</v>
       </c>
@@ -2864,7 +2948,7 @@
         <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -2873,7 +2957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="15">
       <c r="A105" s="1">
         <v>44505</v>
       </c>
@@ -2884,7 +2968,7 @@
         <v>45</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -2899,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="15">
       <c r="A106" s="1">
         <v>44505</v>
       </c>
@@ -2910,7 +2994,7 @@
         <v>50</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G106">
         <v>5</v>
@@ -2919,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="15">
       <c r="A107" s="1">
         <v>44505</v>
       </c>
@@ -2930,7 +3014,7 @@
         <v>55</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -2954,7 +3038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="15">
       <c r="A108" s="1">
         <v>44505</v>
       </c>
@@ -2965,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E108">
         <v>10</v>
@@ -2974,7 +3058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="15">
       <c r="A109" s="1">
         <v>44505</v>
       </c>
@@ -2985,7 +3069,7 @@
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E109">
         <v>10</v>
@@ -2997,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="15">
       <c r="A110" s="1">
         <v>44505</v>
       </c>
@@ -3008,7 +3092,7 @@
         <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E110">
         <v>5</v>
@@ -3017,7 +3101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="15">
       <c r="A111" s="1">
         <v>44505</v>
       </c>
@@ -3028,7 +3112,7 @@
         <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -3037,7 +3121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="15">
       <c r="A112" s="1">
         <v>44505</v>
       </c>
@@ -3048,7 +3132,7 @@
         <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -3057,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="15">
       <c r="A113" s="1">
         <v>44505</v>
       </c>
@@ -3068,13 +3152,13 @@
         <v>25</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="15">
       <c r="A114" s="1">
         <v>44505</v>
       </c>
@@ -3085,7 +3169,7 @@
         <v>30</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -3094,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" ht="15">
       <c r="A115" s="1">
         <v>44505</v>
       </c>
@@ -3105,13 +3189,13 @@
         <v>35</v>
       </c>
       <c r="D115" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G115">
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="15">
       <c r="A116" s="1">
         <v>44505</v>
       </c>
@@ -3122,7 +3206,7 @@
         <v>40</v>
       </c>
       <c r="D116" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E116">
         <v>5</v>
@@ -3140,7 +3224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="15">
       <c r="A117" s="1">
         <v>44505</v>
       </c>
@@ -3151,7 +3235,7 @@
         <v>45</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F117">
         <v>5</v>
@@ -3167,6 +3251,2841 @@
       </c>
       <c r="N117">
         <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="15">
+      <c r="A118" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118">
+        <v>15</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="15">
+      <c r="A119" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="15">
+      <c r="A120" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="15">
+      <c r="A121" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="15">
+      <c r="A122" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>20</v>
+      </c>
+      <c r="D122" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="15">
+      <c r="A123" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>25</v>
+      </c>
+      <c r="D123" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="15">
+      <c r="A124" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>30</v>
+      </c>
+      <c r="D124" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124">
+        <v>5</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="15">
+      <c r="A125" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>35</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>5</v>
+      </c>
+      <c r="I125" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="15">
+      <c r="A126" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>40</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126">
+        <v>5</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="15">
+      <c r="A127" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>45</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>5</v>
+      </c>
+      <c r="K127">
+        <v>25</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="15">
+      <c r="A128" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128">
+        <v>30</v>
+      </c>
+      <c r="F128">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" ht="15">
+      <c r="A129" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="15">
+      <c r="A130" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>10</v>
+      </c>
+      <c r="D130" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" ht="15">
+      <c r="A131" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" ht="15">
+      <c r="A132" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>20</v>
+      </c>
+      <c r="D132" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" ht="15">
+      <c r="A133" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>25</v>
+      </c>
+      <c r="D133" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" ht="15">
+      <c r="A134" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
+        <v>30</v>
+      </c>
+      <c r="D134" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" ht="15">
+      <c r="A135" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>35</v>
+      </c>
+      <c r="D135" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" ht="15">
+      <c r="A136" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <v>40</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="15">
+      <c r="A137" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>45</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>10</v>
+      </c>
+      <c r="K137">
+        <v>10</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="Q137">
+        <v>10</v>
+      </c>
+      <c r="R137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="15">
+      <c r="A138" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E138">
+        <v>35</v>
+      </c>
+      <c r="F138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="15">
+      <c r="A139" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="15">
+      <c r="A140" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>10</v>
+      </c>
+      <c r="E140" t="s">
+        <v>29</v>
+      </c>
+      <c r="F140" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" ht="15">
+      <c r="A141" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" ht="15">
+      <c r="A142" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>20</v>
+      </c>
+      <c r="D142" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="15">
+      <c r="A143" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>25</v>
+      </c>
+      <c r="D143" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="15">
+      <c r="A144" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>30</v>
+      </c>
+      <c r="D144" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" ht="15">
+      <c r="A145" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>35</v>
+      </c>
+      <c r="D145" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" ht="15">
+      <c r="A146" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>40</v>
+      </c>
+      <c r="D146" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="15">
+      <c r="A147" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>45</v>
+      </c>
+      <c r="D147" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="15">
+      <c r="A148" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>50</v>
+      </c>
+      <c r="D148" t="s">
+        <v>27</v>
+      </c>
+      <c r="F148" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" ht="15">
+      <c r="A149" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>55</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="G149" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" ht="15">
+      <c r="A150" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>60</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="G150" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" ht="15">
+      <c r="A151" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>65</v>
+      </c>
+      <c r="F151" t="s">
+        <v>29</v>
+      </c>
+      <c r="G151" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" ht="15">
+      <c r="A152" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>70</v>
+      </c>
+      <c r="D152" t="s">
+        <v>18</v>
+      </c>
+      <c r="F152" t="s">
+        <v>29</v>
+      </c>
+      <c r="G152" t="s">
+        <v>29</v>
+      </c>
+      <c r="S152">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" ht="15">
+      <c r="A153" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>75</v>
+      </c>
+      <c r="D153" t="s">
+        <v>18</v>
+      </c>
+      <c r="F153" t="s">
+        <v>29</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="P153">
+        <v>1</v>
+      </c>
+      <c r="S153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" ht="15">
+      <c r="A154" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154">
+        <v>85</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" ht="15">
+      <c r="A155" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+      <c r="D155" t="s">
+        <v>25</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" ht="15">
+      <c r="A156" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s">
+        <v>25</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" ht="15">
+      <c r="A157" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>15</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" ht="15">
+      <c r="A158" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>20</v>
+      </c>
+      <c r="D158" t="s">
+        <v>27</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" ht="15">
+      <c r="A159" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>25</v>
+      </c>
+      <c r="D159" t="s">
+        <v>25</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" ht="15">
+      <c r="A160" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>30</v>
+      </c>
+      <c r="D160" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="15">
+      <c r="A161" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+      <c r="C161">
+        <v>35</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="15">
+      <c r="A162" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>40</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="15">
+      <c r="A163" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>45</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="15">
+      <c r="A164" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>25</v>
+      </c>
+      <c r="E164">
+        <v>10</v>
+      </c>
+      <c r="F164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="15">
+      <c r="A165" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>5</v>
+      </c>
+      <c r="D165" t="s">
+        <v>25</v>
+      </c>
+      <c r="E165">
+        <v>10</v>
+      </c>
+      <c r="F165">
+        <v>5</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="15">
+      <c r="A166" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>10</v>
+      </c>
+      <c r="D166" t="s">
+        <v>27</v>
+      </c>
+      <c r="E166">
+        <v>5</v>
+      </c>
+      <c r="F166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="15">
+      <c r="A167" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>15</v>
+      </c>
+      <c r="D167" t="s">
+        <v>27</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="15">
+      <c r="A168" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>20</v>
+      </c>
+      <c r="D168" t="s">
+        <v>27</v>
+      </c>
+      <c r="E168" t="s">
+        <v>29</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="15">
+      <c r="A169" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <v>25</v>
+      </c>
+      <c r="D169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F169" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="15">
+      <c r="A170" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B170">
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <v>30</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="15">
+      <c r="A171" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>35</v>
+      </c>
+      <c r="D171" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="15">
+      <c r="A172" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B172">
+        <v>5</v>
+      </c>
+      <c r="C172">
+        <v>40</v>
+      </c>
+      <c r="D172" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172">
+        <v>5</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>10</v>
+      </c>
+      <c r="H172">
+        <v>5</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="15">
+      <c r="A173" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B173">
+        <v>5</v>
+      </c>
+      <c r="C173">
+        <v>45</v>
+      </c>
+      <c r="D173" t="s">
+        <v>28</v>
+      </c>
+      <c r="F173">
+        <v>5</v>
+      </c>
+      <c r="G173">
+        <v>10</v>
+      </c>
+      <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="15">
+      <c r="A174" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174" t="s">
+        <v>27</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
+      </c>
+      <c r="F174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="15">
+      <c r="A175" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>5</v>
+      </c>
+      <c r="D175" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="15">
+      <c r="A176" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>10</v>
+      </c>
+      <c r="D176" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="15">
+      <c r="A177" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>15</v>
+      </c>
+      <c r="D177" t="s">
+        <v>25</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="15">
+      <c r="A178" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>20</v>
+      </c>
+      <c r="D178" t="s">
+        <v>25</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="15">
+      <c r="A179" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>25</v>
+      </c>
+      <c r="D179" t="s">
+        <v>27</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="15">
+      <c r="A180" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>30</v>
+      </c>
+      <c r="D180" t="s">
+        <v>25</v>
+      </c>
+      <c r="E180">
+        <v>5</v>
+      </c>
+      <c r="F180">
+        <v>3</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="15">
+      <c r="A181" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>35</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+      <c r="F181">
+        <v>2</v>
+      </c>
+      <c r="G181">
+        <v>2</v>
+      </c>
+      <c r="H181">
+        <v>10</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="15">
+      <c r="A182" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182" t="s">
+        <v>25</v>
+      </c>
+      <c r="E182">
+        <v>20</v>
+      </c>
+      <c r="F182">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="15">
+      <c r="A183" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>5</v>
+      </c>
+      <c r="D183" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="15">
+      <c r="A184" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184">
+        <v>10</v>
+      </c>
+      <c r="D184" t="s">
+        <v>25</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="15">
+      <c r="A185" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185">
+        <v>15</v>
+      </c>
+      <c r="D185" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="15">
+      <c r="A186" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186">
+        <v>20</v>
+      </c>
+      <c r="D186" t="s">
+        <v>25</v>
+      </c>
+      <c r="E186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="15">
+      <c r="A187" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>25</v>
+      </c>
+      <c r="D187" t="s">
+        <v>27</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>10</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="15">
+      <c r="A188" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188">
+        <v>30</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="15">
+      <c r="A189" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189">
+        <v>35</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="F189">
+        <v>5</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>5</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="15">
+      <c r="A190" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B190">
+        <v>3</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190" t="s">
+        <v>25</v>
+      </c>
+      <c r="E190">
+        <v>25</v>
+      </c>
+      <c r="F190">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="15">
+      <c r="A191" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>5</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="G191" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="15">
+      <c r="A192" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="C192">
+        <v>10</v>
+      </c>
+      <c r="D192" t="s">
+        <v>25</v>
+      </c>
+      <c r="E192" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="15">
+      <c r="A193" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193">
+        <v>15</v>
+      </c>
+      <c r="D193" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="15">
+      <c r="A194" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B194">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>20</v>
+      </c>
+      <c r="D194" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="15">
+      <c r="A195" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <v>25</v>
+      </c>
+      <c r="D195" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="15">
+      <c r="A196" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>30</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+      <c r="H196" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="15">
+      <c r="A197" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B197">
+        <v>3</v>
+      </c>
+      <c r="C197">
+        <v>35</v>
+      </c>
+      <c r="D197" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="15">
+      <c r="A198" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198">
+        <v>40</v>
+      </c>
+      <c r="D198" t="s">
+        <v>7</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="15">
+      <c r="A199" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B199">
+        <v>4</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199" t="s">
+        <v>25</v>
+      </c>
+      <c r="E199">
+        <v>40</v>
+      </c>
+      <c r="F199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="15">
+      <c r="A200" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B200">
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>5</v>
+      </c>
+      <c r="D200" t="s">
+        <v>27</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="15">
+      <c r="A201" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B201">
+        <v>4</v>
+      </c>
+      <c r="C201">
+        <v>10</v>
+      </c>
+      <c r="D201" t="s">
+        <v>27</v>
+      </c>
+      <c r="F201" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="15">
+      <c r="A202" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B202">
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <v>15</v>
+      </c>
+      <c r="D202" t="s">
+        <v>31</v>
+      </c>
+      <c r="F202" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="15">
+      <c r="A203" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>20</v>
+      </c>
+      <c r="F203" t="s">
+        <v>29</v>
+      </c>
+      <c r="G203" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="15">
+      <c r="A204" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B204">
+        <v>4</v>
+      </c>
+      <c r="C204">
+        <v>25</v>
+      </c>
+      <c r="D204" t="s">
+        <v>27</v>
+      </c>
+      <c r="F204" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="15">
+      <c r="A205" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B205">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>30</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="G205" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="15">
+      <c r="A206" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B206">
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <v>35</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="F206" t="s">
+        <v>29</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="15">
+      <c r="A207" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207">
+        <v>40</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+      <c r="H207" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="15">
+      <c r="A208" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B208">
+        <v>4</v>
+      </c>
+      <c r="C208">
+        <v>45</v>
+      </c>
+      <c r="G208" t="s">
+        <v>29</v>
+      </c>
+      <c r="H208" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" ht="15">
+      <c r="A209" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B209">
+        <v>5</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209" t="s">
+        <v>25</v>
+      </c>
+      <c r="E209">
+        <v>20</v>
+      </c>
+      <c r="F209">
+        <v>5</v>
+      </c>
+      <c r="R209" t="s">
+        <v>29</v>
+      </c>
+      <c r="T209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" ht="15">
+      <c r="A210" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B210">
+        <v>5</v>
+      </c>
+      <c r="C210">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>25</v>
+      </c>
+      <c r="E210">
+        <v>10</v>
+      </c>
+      <c r="F210">
+        <v>5</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" ht="15">
+      <c r="A211" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B211">
+        <v>5</v>
+      </c>
+      <c r="C211">
+        <v>10</v>
+      </c>
+      <c r="D211" t="s">
+        <v>25</v>
+      </c>
+      <c r="E211">
+        <v>5</v>
+      </c>
+      <c r="F211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" ht="15">
+      <c r="A212" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B212">
+        <v>5</v>
+      </c>
+      <c r="C212">
+        <v>15</v>
+      </c>
+      <c r="E212">
+        <v>2</v>
+      </c>
+      <c r="F212">
+        <v>2</v>
+      </c>
+      <c r="G212" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" ht="15">
+      <c r="A213" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B213">
+        <v>5</v>
+      </c>
+      <c r="C213">
+        <v>20</v>
+      </c>
+      <c r="D213" t="s">
+        <v>27</v>
+      </c>
+      <c r="F213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" ht="15">
+      <c r="A214" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B214">
+        <v>5</v>
+      </c>
+      <c r="C214">
+        <v>25</v>
+      </c>
+      <c r="D214" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" ht="15">
+      <c r="A215" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B215">
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <v>30</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="G215" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" ht="15">
+      <c r="A216" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B216">
+        <v>5</v>
+      </c>
+      <c r="C216">
+        <v>35</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="G216">
+        <v>5</v>
+      </c>
+      <c r="U216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" ht="15">
+      <c r="A217" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B217">
+        <v>5</v>
+      </c>
+      <c r="C217">
+        <v>40</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" t="s">
+        <v>29</v>
+      </c>
+      <c r="F217" t="s">
+        <v>29</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217" t="s">
+        <v>29</v>
+      </c>
+      <c r="L217" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" ht="15">
+      <c r="A218" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B218">
+        <v>5</v>
+      </c>
+      <c r="C218">
+        <v>45</v>
+      </c>
+      <c r="D218" t="s">
+        <v>7</v>
+      </c>
+      <c r="F218" t="s">
+        <v>29</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+      <c r="I218" t="s">
+        <v>29</v>
+      </c>
+      <c r="N218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" ht="15">
+      <c r="A219" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>10</v>
+      </c>
+      <c r="F219">
+        <v>10</v>
+      </c>
+      <c r="R219">
+        <v>2</v>
+      </c>
+      <c r="W219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" ht="15">
+      <c r="A220" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>5</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220">
+        <v>2</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>30</v>
+      </c>
+      <c r="T220">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" ht="15">
+      <c r="A221" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>10</v>
+      </c>
+      <c r="D221" t="s">
+        <v>27</v>
+      </c>
+      <c r="F221">
+        <v>5</v>
+      </c>
+      <c r="G221">
+        <v>2</v>
+      </c>
+      <c r="T221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" ht="15">
+      <c r="A222" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>15</v>
+      </c>
+      <c r="D222" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" ht="15">
+      <c r="A223" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>20</v>
+      </c>
+      <c r="D223" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" ht="15">
+      <c r="A224" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>25</v>
+      </c>
+      <c r="E224">
+        <v>10</v>
+      </c>
+      <c r="F224">
+        <v>10</v>
+      </c>
+      <c r="V224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" ht="15">
+      <c r="A225" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>30</v>
+      </c>
+      <c r="D225" t="s">
+        <v>21</v>
+      </c>
+      <c r="G225">
+        <v>2</v>
+      </c>
+      <c r="T225">
+        <v>1</v>
+      </c>
+      <c r="V225">
+        <v>30</v>
+      </c>
+      <c r="W225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" ht="15">
+      <c r="A226" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B226">
+        <v>2</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226" t="s">
+        <v>25</v>
+      </c>
+      <c r="E226">
+        <v>35</v>
+      </c>
+      <c r="F226">
+        <v>20</v>
+      </c>
+      <c r="R226">
+        <v>2</v>
+      </c>
+      <c r="X226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" ht="15">
+      <c r="A227" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+      <c r="C227">
+        <v>5</v>
+      </c>
+      <c r="D227" t="s">
+        <v>27</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" ht="15">
+      <c r="A228" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228">
+        <v>10</v>
+      </c>
+      <c r="D228" t="s">
+        <v>25</v>
+      </c>
+      <c r="E228">
+        <v>5</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>4</v>
+      </c>
+      <c r="R228">
+        <v>2</v>
+      </c>
+      <c r="X228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24" ht="15">
+      <c r="A229" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229">
+        <v>15</v>
+      </c>
+      <c r="D229" t="s">
+        <v>27</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" ht="15">
+      <c r="A230" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230">
+        <v>20</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>2</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="T230">
+        <v>2</v>
+      </c>
+      <c r="V230">
+        <v>2</v>
+      </c>
+      <c r="X230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" ht="15">
+      <c r="A231" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231">
+        <v>25</v>
+      </c>
+      <c r="F231">
+        <v>5</v>
+      </c>
+      <c r="G231">
+        <v>2</v>
+      </c>
+      <c r="T231">
+        <v>5</v>
+      </c>
+      <c r="V231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" ht="15">
+      <c r="A232" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232">
+        <v>30</v>
+      </c>
+      <c r="D232" t="s">
+        <v>19</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="T232">
+        <v>20</v>
+      </c>
+      <c r="V232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" ht="15">
+      <c r="A233" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233">
+        <v>35</v>
+      </c>
+      <c r="E233">
+        <v>2</v>
+      </c>
+      <c r="F233">
+        <v>5</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="V233">
+        <v>5</v>
+      </c>
+      <c r="W233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24" ht="15">
+      <c r="A234" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234" t="s">
+        <v>25</v>
+      </c>
+      <c r="E234">
+        <v>45</v>
+      </c>
+      <c r="F234">
+        <v>3</v>
+      </c>
+      <c r="X234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" ht="15">
+      <c r="A235" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="C235">
+        <v>5</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="T235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24" ht="15">
+      <c r="A236" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>10</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" ht="15">
+      <c r="A237" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>15</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="X237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" ht="15">
+      <c r="A238" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>20</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="V238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" ht="15">
+      <c r="A239" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
+      <c r="C239">
+        <v>25</v>
+      </c>
+      <c r="D239" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" ht="15">
+      <c r="A240" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B240">
+        <v>3</v>
+      </c>
+      <c r="C240">
+        <v>30</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:25" ht="15">
+      <c r="A241" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+      <c r="C241">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25" ht="15">
+      <c r="A242" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B242">
+        <v>3</v>
+      </c>
+      <c r="C242">
+        <v>40</v>
+      </c>
+      <c r="D242" t="s">
+        <v>21</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="T242">
+        <v>1</v>
+      </c>
+      <c r="V242">
+        <v>3</v>
+      </c>
+      <c r="W242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:25" ht="15">
+      <c r="A243" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
+      <c r="C243">
+        <v>45</v>
+      </c>
+      <c r="D243" t="s">
+        <v>19</v>
+      </c>
+      <c r="T243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:25" ht="15">
+      <c r="A244" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B244">
+        <v>4</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244" t="s">
+        <v>25</v>
+      </c>
+      <c r="E244">
+        <v>40</v>
+      </c>
+      <c r="F244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:25" ht="15">
+      <c r="A245" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B245">
+        <v>4</v>
+      </c>
+      <c r="C245">
+        <v>5</v>
+      </c>
+      <c r="D245" t="s">
+        <v>27</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:25" ht="15">
+      <c r="A246" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B246">
+        <v>4</v>
+      </c>
+      <c r="C246">
+        <v>10</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="T246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:25" ht="15">
+      <c r="A247" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B247">
+        <v>4</v>
+      </c>
+      <c r="C247">
+        <v>15</v>
+      </c>
+      <c r="D247" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25" ht="15">
+      <c r="A248" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B248">
+        <v>4</v>
+      </c>
+      <c r="C248">
+        <v>20</v>
+      </c>
+      <c r="F248" t="s">
+        <v>29</v>
+      </c>
+      <c r="G248" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25" ht="15">
+      <c r="A249" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B249">
+        <v>4</v>
+      </c>
+      <c r="C249">
+        <v>25</v>
+      </c>
+      <c r="G249" t="s">
+        <v>29</v>
+      </c>
+      <c r="H249" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="250" spans="1:25" ht="15">
+      <c r="A250" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B250">
+        <v>4</v>
+      </c>
+      <c r="C250">
+        <v>30</v>
+      </c>
+      <c r="G250" t="s">
+        <v>29</v>
+      </c>
+      <c r="H250" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="251" spans="1:25" ht="15">
+      <c r="A251" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B251">
+        <v>4</v>
+      </c>
+      <c r="C251">
+        <v>35</v>
+      </c>
+      <c r="D251" t="s">
+        <v>7</v>
+      </c>
+      <c r="G251" t="s">
+        <v>29</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="Y251" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="252" spans="1:25" ht="15">
+      <c r="A252" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B252">
+        <v>4</v>
+      </c>
+      <c r="C252">
+        <v>40</v>
+      </c>
+      <c r="G252" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y252" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="253" spans="1:25" ht="15">
+      <c r="A253" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B253">
+        <v>4</v>
+      </c>
+      <c r="C253">
+        <v>45</v>
+      </c>
+      <c r="D253" t="s">
+        <v>7</v>
+      </c>
+      <c r="H253" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="254" spans="1:25" ht="15">
+      <c r="A254" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B254">
+        <v>5</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254" t="s">
+        <v>25</v>
+      </c>
+      <c r="E254">
+        <v>25</v>
+      </c>
+      <c r="F254">
+        <v>15</v>
+      </c>
+      <c r="R254" t="s">
+        <v>29</v>
+      </c>
+      <c r="T254">
+        <v>2</v>
+      </c>
+      <c r="V254">
+        <v>1</v>
+      </c>
+      <c r="W254" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25" ht="15">
+      <c r="A255" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B255">
+        <v>5</v>
+      </c>
+      <c r="C255">
+        <v>5</v>
+      </c>
+      <c r="D255" t="s">
+        <v>25</v>
+      </c>
+      <c r="E255">
+        <v>5</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255" t="s">
+        <v>29</v>
+      </c>
+      <c r="T255" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="256" spans="1:25" ht="15">
+      <c r="A256" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B256">
+        <v>5</v>
+      </c>
+      <c r="C256">
+        <v>10</v>
+      </c>
+      <c r="D256" t="s">
+        <v>25</v>
+      </c>
+      <c r="E256">
+        <v>5</v>
+      </c>
+      <c r="F256">
+        <v>2</v>
+      </c>
+      <c r="V256" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25" ht="15">
+      <c r="A257" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B257">
+        <v>5</v>
+      </c>
+      <c r="C257">
+        <v>15</v>
+      </c>
+      <c r="E257" t="s">
+        <v>29</v>
+      </c>
+      <c r="F257" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="258" spans="1:25" ht="15">
+      <c r="A258" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B258">
+        <v>5</v>
+      </c>
+      <c r="C258">
+        <v>20</v>
+      </c>
+      <c r="E258" t="s">
+        <v>29</v>
+      </c>
+      <c r="F258" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="259" spans="1:25" ht="15">
+      <c r="A259" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B259">
+        <v>5</v>
+      </c>
+      <c r="C259">
+        <v>25</v>
+      </c>
+      <c r="E259" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="260" spans="1:25" ht="15">
+      <c r="A260" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B260">
+        <v>5</v>
+      </c>
+      <c r="C260">
+        <v>30</v>
+      </c>
+      <c r="D260" t="s">
+        <v>28</v>
+      </c>
+      <c r="F260" t="s">
+        <v>29</v>
+      </c>
+      <c r="G260">
+        <v>2</v>
+      </c>
+      <c r="H260" t="s">
+        <v>29</v>
+      </c>
+      <c r="T260" t="s">
+        <v>29</v>
+      </c>
+      <c r="V260" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25" ht="15">
+      <c r="A261" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B261">
+        <v>5</v>
+      </c>
+      <c r="C261">
+        <v>35</v>
+      </c>
+      <c r="G261">
+        <v>5</v>
+      </c>
+      <c r="H261">
+        <v>5</v>
+      </c>
+      <c r="L261" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="262" spans="1:25" ht="15">
+      <c r="A262" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B262">
+        <v>5</v>
+      </c>
+      <c r="C262">
+        <v>40</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="H262">
+        <v>1</v>
+      </c>
+      <c r="R262" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="263" spans="1:25" ht="15">
+      <c r="A263" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B263">
+        <v>5</v>
+      </c>
+      <c r="C263">
+        <v>45</v>
+      </c>
+      <c r="D263" t="s">
+        <v>7</v>
+      </c>
+      <c r="G263" t="s">
+        <v>29</v>
+      </c>
+      <c r="H263">
+        <v>5</v>
+      </c>
+      <c r="Y263" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="264" spans="1:25" ht="15">
+      <c r="A264" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B264">
+        <v>5</v>
+      </c>
+      <c r="C264">
+        <v>50</v>
+      </c>
+      <c r="D264" t="s">
+        <v>7</v>
+      </c>
+      <c r="G264" t="s">
+        <v>29</v>
+      </c>
+      <c r="H264">
+        <v>2</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/GW_seaweed_seasonality_transect_data1.xlsx
+++ b/GW_seaweed_seasonality_transect_data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="797" documentId="8_{38EC0476-1FF6-4D41-9D9E-0D99C2282F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C07595FE-0E47-40F3-8396-D938B4A1889F}"/>
+  <xr:revisionPtr revIDLastSave="806" documentId="8_{38EC0476-1FF6-4D41-9D9E-0D99C2282F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F36A553-F9F7-4DDE-9858-7CE6C0EF2AC8}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,22 +982,22 @@
   <dimension ref="A1:Y264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J265" sqref="J265"/>
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U232" sqref="U232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44444</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44444</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44444</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44444</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44444</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44444</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44444</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44444</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44444</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44444</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44444</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44444</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44444</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44444</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44444</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44444</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44444</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44444</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44444</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44444</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44444</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44444</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44444</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44444</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44444</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44444</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44444</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44444</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44444</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44444</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44444</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44444</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44444</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44444</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44444</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44444</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44444</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44444</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44444</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44444</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44444</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44473</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44473</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44473</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44473</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44473</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44473</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44473</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44473</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44473</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44473</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44473</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44473</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44473</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44473</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44473</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44473</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44473</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44473</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44473</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44473</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44473</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44473</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44473</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44473</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44473</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44473</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44505</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44505</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44505</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44505</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44505</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44505</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44505</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44505</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44505</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44505</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44505</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44505</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44505</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44505</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44505</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44505</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44505</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44505</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44505</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44505</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44505</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44505</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44505</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44505</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44505</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44505</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44505</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44505</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44505</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44505</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44505</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44505</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44505</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44505</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44505</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44505</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44505</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44505</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44505</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44505</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44505</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44505</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44505</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44505</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44505</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44505</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44505</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44505</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44505</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44533</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44533</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44533</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44533</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44533</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44533</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44533</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44533</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44533</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44533</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44533</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="15">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44533</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="15">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44533</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="15">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44533</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="15">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44533</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="15">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44533</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="15">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44533</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="15">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44533</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="15">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44533</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="15">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44533</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="15">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44533</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="15">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44533</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="15">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44533</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="15">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44533</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="15">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44533</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="15">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44533</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="15">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44533</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="15">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44533</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="15">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44533</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="15">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44533</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="15">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44533</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="15">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44533</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="15">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44533</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="15">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44533</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="15">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44533</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="15">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44533</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="15">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44533</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="15">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44533</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="15">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44533</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="15">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44533</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="15">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44533</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="15">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44533</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="15">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44533</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="15">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44533</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="15">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44533</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="15">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44533</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="15">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44533</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="15">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44533</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="15">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44533</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="15">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44533</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="15">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44533</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="15">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44533</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="15">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44533</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="15">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44533</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="15">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44533</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="15">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44533</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="15">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44576</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="15">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44576</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="15">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44576</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="15">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44576</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="15">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44576</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="15">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44576</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="15">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44576</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:14" ht="15">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44576</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:14" ht="15">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44576</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:14" ht="15">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44576</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:14" ht="15">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44576</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="15">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44576</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:14" ht="15">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44576</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="15">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44576</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="15">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44576</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:14" ht="15">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44576</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:14" ht="15">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44576</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:14" ht="15">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44576</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:14" ht="15">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44576</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44576</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="15">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44576</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44576</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="15">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44576</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="15">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44576</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="15">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44576</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="15">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44576</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="15">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44576</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="15">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44576</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="15">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44576</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="15">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44576</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="15">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44576</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="15">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44576</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="15">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44576</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="15">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44576</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="15">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44576</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="209" spans="1:23" ht="15">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44576</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:23" ht="15">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44576</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:23" ht="15">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44576</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:23" ht="15">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44576</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="15">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44576</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:23" ht="15">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44576</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:23" ht="15">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44576</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="216" spans="1:23" ht="15">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44576</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:23" ht="15">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44576</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="218" spans="1:23" ht="15">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44576</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:23" ht="15">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44608</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:23" ht="15">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44608</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:23" ht="15">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44608</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:23" ht="15">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44608</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:23" ht="15">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44608</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:23" ht="15">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44608</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="15">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44608</v>
       </c>
@@ -5286,17 +5286,17 @@
       <c r="G225">
         <v>2</v>
       </c>
-      <c r="T225">
-        <v>1</v>
-      </c>
       <c r="V225">
         <v>30</v>
       </c>
       <c r="W225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:24" ht="15">
+      <c r="Y225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44608</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="15">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44608</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="15">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44608</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="15">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44608</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="15">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44608</v>
       </c>
@@ -5404,17 +5404,17 @@
       <c r="I230">
         <v>1</v>
       </c>
-      <c r="T230">
-        <v>2</v>
-      </c>
       <c r="V230">
         <v>2</v>
       </c>
       <c r="X230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:24" ht="15">
+      <c r="Y230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44608</v>
       </c>
@@ -5430,14 +5430,14 @@
       <c r="G231">
         <v>2</v>
       </c>
-      <c r="T231">
-        <v>5</v>
-      </c>
       <c r="V231">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:24" ht="15">
+      <c r="Y231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44608</v>
       </c>
@@ -5453,14 +5453,14 @@
       <c r="G232">
         <v>1</v>
       </c>
-      <c r="T232">
+      <c r="V232">
+        <v>2</v>
+      </c>
+      <c r="Y232">
         <v>20</v>
       </c>
-      <c r="V232">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:24" ht="15">
+    </row>
+    <row r="233" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44608</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="15">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44608</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="15">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44608</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="15">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44608</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="15">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44608</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="15">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44608</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="15">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44608</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="15">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44608</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:25" ht="15">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44608</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="242" spans="1:25" ht="15">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44608</v>
       </c>
@@ -5641,17 +5641,17 @@
       <c r="G242">
         <v>1</v>
       </c>
-      <c r="T242">
-        <v>1</v>
-      </c>
       <c r="V242">
         <v>3</v>
       </c>
       <c r="W242">
         <v>2</v>
       </c>
-    </row>
-    <row r="243" spans="1:25" ht="15">
+      <c r="Y242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44608</v>
       </c>
@@ -5664,11 +5664,11 @@
       <c r="D243" t="s">
         <v>19</v>
       </c>
-      <c r="T243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:25" ht="15">
+      <c r="Y243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44608</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:25" ht="15">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44608</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:25" ht="15">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44608</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:25" ht="15">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44608</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:25" ht="15">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44608</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="249" spans="1:25" ht="15">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44608</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:25" ht="15">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44608</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:25" ht="15">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44608</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="252" spans="1:25" ht="15">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44608</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:25" ht="15">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44608</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="254" spans="1:25" ht="15">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44608</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="255" spans="1:25" ht="15">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44608</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="256" spans="1:25" ht="15">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44608</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="257" spans="1:25" ht="15">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44608</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:25" ht="15">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44608</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="259" spans="1:25" ht="15">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44608</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="260" spans="1:25" ht="15">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44608</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="261" spans="1:25" ht="15">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44608</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="262" spans="1:25" ht="15">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44608</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="263" spans="1:25" ht="15">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44608</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="264" spans="1:25" ht="15">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44608</v>
       </c>

--- a/GW_seaweed_seasonality_transect_data1.xlsx
+++ b/GW_seaweed_seasonality_transect_data1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="806" documentId="8_{38EC0476-1FF6-4D41-9D9E-0D99C2282F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F36A553-F9F7-4DDE-9858-7CE6C0EF2AC8}"/>
+  <xr:revisionPtr revIDLastSave="965" documentId="8_{38EC0476-1FF6-4D41-9D9E-0D99C2282F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08E5780F-5EC3-463E-B6C6-9F02EBBD2496}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$N$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$O$117</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="41">
   <si>
     <t>sampling_date</t>
   </si>
@@ -52,6 +53,9 @@
   </si>
   <si>
     <t>mastocarpus_sp_percent-cover</t>
+  </si>
+  <si>
+    <t>petrocelis_percent_cover</t>
   </si>
   <si>
     <t>ulva_fenestrata_percent-cover</t>
@@ -102,13 +106,19 @@
     <t>polysiphonia_sp</t>
   </si>
   <si>
-    <t>ulva_sp</t>
+    <t>ulva_intestinalis</t>
   </si>
   <si>
     <t>pyropia_sp</t>
   </si>
   <si>
     <t>laminariales_sp</t>
+  </si>
+  <si>
+    <t>cladophora_stimpsonii</t>
+  </si>
+  <si>
+    <t>ulva_long</t>
   </si>
   <si>
     <t>fucus_distichus</t>
@@ -131,12 +141,30 @@
   <si>
     <t>mastocarous_sp</t>
   </si>
+  <si>
+    <t>fucus</t>
+  </si>
+  <si>
+    <t>petalonia</t>
+  </si>
+  <si>
+    <t>petrocelis</t>
+  </si>
+  <si>
+    <t>laminariales</t>
+  </si>
+  <si>
+    <t>mastocarpus</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -979,25 +1007,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y264"/>
+  <dimension ref="A1:AB336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U232" sqref="U232"/>
+      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I291" sqref="I291"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1073,8 +1101,17 @@
       <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>44444</v>
       </c>
@@ -1085,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -1094,7 +1131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>44444</v>
       </c>
@@ -1105,10 +1142,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>44444</v>
       </c>
@@ -1119,10 +1156,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>44444</v>
       </c>
@@ -1133,13 +1170,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>44444</v>
       </c>
@@ -1150,10 +1187,10 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>44444</v>
       </c>
@@ -1164,10 +1201,10 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>44444</v>
       </c>
@@ -1178,7 +1215,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1186,11 +1223,11 @@
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>44444</v>
       </c>
@@ -1201,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -1210,7 +1247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>44444</v>
       </c>
@@ -1221,13 +1258,13 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>44444</v>
       </c>
@@ -1238,13 +1275,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>44444</v>
       </c>
@@ -1255,7 +1292,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1264,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>44444</v>
       </c>
@@ -1275,16 +1312,16 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>44444</v>
       </c>
@@ -1295,16 +1332,16 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>44444</v>
       </c>
@@ -1315,16 +1352,16 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>44444</v>
       </c>
@@ -1335,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>70</v>
@@ -1344,7 +1381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>44444</v>
       </c>
@@ -1355,13 +1392,13 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>44444</v>
       </c>
@@ -1372,7 +1409,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1381,7 +1418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>44444</v>
       </c>
@@ -1392,13 +1429,13 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>44444</v>
       </c>
@@ -1409,16 +1446,16 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>44444</v>
       </c>
@@ -1429,13 +1466,13 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>44444</v>
       </c>
@@ -1446,13 +1483,13 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>44444</v>
       </c>
@@ -1463,10 +1500,10 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>44444</v>
       </c>
@@ -1477,13 +1514,13 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>44444</v>
       </c>
@@ -1494,13 +1531,13 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>44444</v>
       </c>
@@ -1511,13 +1548,13 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>44444</v>
       </c>
@@ -1528,13 +1565,13 @@
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27">
+        <v>31</v>
+      </c>
+      <c r="H27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>44444</v>
       </c>
@@ -1545,13 +1582,13 @@
         <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>44444</v>
       </c>
@@ -1562,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>70</v>
@@ -1571,7 +1608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>44444</v>
       </c>
@@ -1582,13 +1619,13 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>44444</v>
       </c>
@@ -1599,10 +1636,10 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>44444</v>
       </c>
@@ -1613,7 +1650,7 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1622,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>44444</v>
       </c>
@@ -1633,16 +1670,16 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>44444</v>
       </c>
@@ -1653,16 +1690,16 @@
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>44444</v>
       </c>
@@ -1673,16 +1710,16 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>44444</v>
       </c>
@@ -1693,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -1702,7 +1739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>44444</v>
       </c>
@@ -1713,7 +1750,7 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E37">
         <v>25</v>
@@ -1722,7 +1759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>44444</v>
       </c>
@@ -1733,7 +1770,7 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -1742,7 +1779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>44444</v>
       </c>
@@ -1753,7 +1790,7 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1762,7 +1799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>44444</v>
       </c>
@@ -1773,7 +1810,7 @@
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1782,7 +1819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>44444</v>
       </c>
@@ -1793,13 +1830,13 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>44444</v>
       </c>
@@ -1810,13 +1847,13 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>44473</v>
       </c>
@@ -1827,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>30</v>
@@ -1836,7 +1873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>44473</v>
       </c>
@@ -1847,7 +1884,7 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -1856,7 +1893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>44473</v>
       </c>
@@ -1867,10 +1904,10 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44473</v>
       </c>
@@ -1881,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -1890,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>44473</v>
       </c>
@@ -1901,13 +1938,13 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E47">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>44473</v>
       </c>
@@ -1918,10 +1955,10 @@
         <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>44473</v>
       </c>
@@ -1932,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E49">
         <v>40</v>
@@ -1941,7 +1978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>44473</v>
       </c>
@@ -1952,13 +1989,13 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>44473</v>
       </c>
@@ -1969,7 +2006,7 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E51">
         <v>20</v>
@@ -1978,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>44473</v>
       </c>
@@ -1989,7 +2026,7 @@
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -1998,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>44473</v>
       </c>
@@ -2009,13 +2046,13 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>44473</v>
       </c>
@@ -2026,16 +2063,16 @@
         <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E54">
         <v>5</v>
       </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>44473</v>
       </c>
@@ -2046,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E55">
         <v>40</v>
@@ -2055,7 +2092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>44473</v>
       </c>
@@ -2066,10 +2103,10 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>44473</v>
       </c>
@@ -2080,7 +2117,7 @@
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2089,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>44473</v>
       </c>
@@ -2100,16 +2137,16 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>44473</v>
       </c>
@@ -2120,16 +2157,16 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E59">
         <v>5</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>44473</v>
       </c>
@@ -2140,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E60">
         <v>70</v>
@@ -2149,7 +2186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>44473</v>
       </c>
@@ -2160,7 +2197,7 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2169,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>44473</v>
       </c>
@@ -2180,13 +2217,13 @@
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>44473</v>
       </c>
@@ -2197,10 +2234,10 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>44473</v>
       </c>
@@ -2211,7 +2248,7 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E64">
         <v>10</v>
@@ -2219,11 +2256,11 @@
       <c r="F64">
         <v>1</v>
       </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>44473</v>
       </c>
@@ -2234,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -2242,11 +2279,11 @@
       <c r="F65">
         <v>5</v>
       </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>44473</v>
       </c>
@@ -2257,7 +2294,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E66">
         <v>30</v>
@@ -2266,7 +2303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>44473</v>
       </c>
@@ -2277,7 +2314,7 @@
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E67">
         <v>10</v>
@@ -2286,7 +2323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>44473</v>
       </c>
@@ -2297,7 +2334,7 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E68">
         <v>5</v>
@@ -2306,7 +2343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>44505</v>
       </c>
@@ -2323,7 +2360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>44505</v>
       </c>
@@ -2334,7 +2371,7 @@
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -2343,7 +2380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>44505</v>
       </c>
@@ -2354,10 +2391,10 @@
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>44505</v>
       </c>
@@ -2374,7 +2411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>44505</v>
       </c>
@@ -2385,7 +2422,7 @@
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -2394,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>44505</v>
       </c>
@@ -2405,10 +2442,10 @@
         <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>44505</v>
       </c>
@@ -2419,7 +2456,7 @@
         <v>30</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -2428,7 +2465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>44505</v>
       </c>
@@ -2439,10 +2476,10 @@
         <v>35</v>
       </c>
       <c r="D76" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>44505</v>
       </c>
@@ -2453,7 +2490,7 @@
         <v>40</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2461,11 +2498,11 @@
       <c r="F77">
         <v>1</v>
       </c>
-      <c r="G77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>44505</v>
       </c>
@@ -2476,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E78">
         <v>40</v>
@@ -2485,7 +2522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>44505</v>
       </c>
@@ -2496,13 +2533,13 @@
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>44505</v>
       </c>
@@ -2513,7 +2550,7 @@
         <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E80">
         <v>15</v>
@@ -2522,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>44505</v>
       </c>
@@ -2533,10 +2570,10 @@
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>44505</v>
       </c>
@@ -2547,13 +2584,13 @@
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10">
       <c r="A83" s="1">
         <v>44505</v>
       </c>
@@ -2564,7 +2601,7 @@
         <v>25</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -2572,11 +2609,11 @@
       <c r="F83">
         <v>1</v>
       </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>44505</v>
       </c>
@@ -2589,11 +2626,11 @@
       <c r="F84">
         <v>1</v>
       </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <v>44505</v>
       </c>
@@ -2604,7 +2641,7 @@
         <v>35</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E85">
         <v>20</v>
@@ -2612,14 +2649,14 @@
       <c r="F85">
         <v>1</v>
       </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1">
         <v>44505</v>
       </c>
@@ -2630,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E86">
         <v>35</v>
@@ -2639,7 +2676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10">
       <c r="A87" s="1">
         <v>44505</v>
       </c>
@@ -2650,10 +2687,10 @@
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1">
         <v>44505</v>
       </c>
@@ -2664,10 +2701,10 @@
         <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1">
         <v>44505</v>
       </c>
@@ -2678,7 +2715,7 @@
         <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -2687,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10">
       <c r="A90" s="1">
         <v>44505</v>
       </c>
@@ -2698,10 +2735,10 @@
         <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1">
         <v>44505</v>
       </c>
@@ -2712,10 +2749,10 @@
         <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1">
         <v>44505</v>
       </c>
@@ -2726,13 +2763,13 @@
         <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1">
         <v>44505</v>
       </c>
@@ -2743,13 +2780,13 @@
         <v>35</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1">
         <v>44505</v>
       </c>
@@ -2760,13 +2797,13 @@
         <v>40</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F94">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10">
       <c r="A95" s="1">
         <v>44505</v>
       </c>
@@ -2777,13 +2814,13 @@
         <v>45</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <v>44505</v>
       </c>
@@ -2794,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E96">
         <v>50</v>
@@ -2803,7 +2840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14">
       <c r="A97" s="1">
         <v>44505</v>
       </c>
@@ -2814,7 +2851,7 @@
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -2823,7 +2860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14">
       <c r="A98" s="1">
         <v>44505</v>
       </c>
@@ -2834,7 +2871,7 @@
         <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -2843,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14">
       <c r="A99" s="1">
         <v>44505</v>
       </c>
@@ -2854,7 +2891,7 @@
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -2863,7 +2900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14">
       <c r="A100" s="1">
         <v>44505</v>
       </c>
@@ -2874,10 +2911,10 @@
         <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="1">
         <v>44505</v>
       </c>
@@ -2888,10 +2925,10 @@
         <v>25</v>
       </c>
       <c r="D101" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="1">
         <v>44505</v>
       </c>
@@ -2902,16 +2939,16 @@
         <v>30</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="1">
         <v>44505</v>
       </c>
@@ -2922,7 +2959,7 @@
         <v>35</v>
       </c>
       <c r="D103" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -2930,14 +2967,14 @@
       <c r="F103">
         <v>1</v>
       </c>
-      <c r="G103">
-        <v>10</v>
-      </c>
       <c r="H103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="1">
         <v>44505</v>
       </c>
@@ -2948,16 +2985,16 @@
         <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
-      <c r="G104">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="1">
         <v>44505</v>
       </c>
@@ -2968,22 +3005,22 @@
         <v>45</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F105">
         <v>1</v>
       </c>
-      <c r="G105">
-        <v>10</v>
-      </c>
       <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="J105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="1">
         <v>44505</v>
       </c>
@@ -2994,16 +3031,16 @@
         <v>50</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
-      </c>
-      <c r="G106">
-        <v>5</v>
-      </c>
-      <c r="J106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="1">
         <v>44505</v>
       </c>
@@ -3014,31 +3051,31 @@
         <v>55</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F107">
         <v>2</v>
       </c>
-      <c r="G107">
-        <v>5</v>
-      </c>
       <c r="H107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="K107">
-        <v>3</v>
+      <c r="J107">
+        <v>1</v>
       </c>
       <c r="L107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="1">
         <v>44505</v>
       </c>
@@ -3049,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E108">
         <v>10</v>
@@ -3058,7 +3095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14">
       <c r="A109" s="1">
         <v>44505</v>
       </c>
@@ -3069,7 +3106,7 @@
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E109">
         <v>10</v>
@@ -3077,11 +3114,11 @@
       <c r="F109">
         <v>5</v>
       </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="1">
         <v>44505</v>
       </c>
@@ -3092,7 +3129,7 @@
         <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E110">
         <v>5</v>
@@ -3101,7 +3138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14">
       <c r="A111" s="1">
         <v>44505</v>
       </c>
@@ -3112,7 +3149,7 @@
         <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -3121,7 +3158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14">
       <c r="A112" s="1">
         <v>44505</v>
       </c>
@@ -3132,7 +3169,7 @@
         <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -3141,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17">
       <c r="A113" s="1">
         <v>44505</v>
       </c>
@@ -3152,13 +3189,13 @@
         <v>25</v>
       </c>
       <c r="D113" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17">
       <c r="A114" s="1">
         <v>44505</v>
       </c>
@@ -3169,16 +3206,16 @@
         <v>30</v>
       </c>
       <c r="D114" t="s">
-        <v>28</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" s="1">
         <v>44505</v>
       </c>
@@ -3189,13 +3226,13 @@
         <v>35</v>
       </c>
       <c r="D115" t="s">
-        <v>28</v>
-      </c>
-      <c r="G115">
+        <v>31</v>
+      </c>
+      <c r="H115">
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17">
       <c r="A116" s="1">
         <v>44505</v>
       </c>
@@ -3206,7 +3243,7 @@
         <v>40</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E116">
         <v>5</v>
@@ -3214,17 +3251,17 @@
       <c r="F116">
         <v>1</v>
       </c>
-      <c r="G116">
-        <v>10</v>
-      </c>
       <c r="H116">
-        <v>5</v>
-      </c>
-      <c r="N116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I116">
+        <v>5</v>
+      </c>
+      <c r="O116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" s="1">
         <v>44505</v>
       </c>
@@ -3235,25 +3272,25 @@
         <v>45</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F117">
         <v>5</v>
       </c>
-      <c r="G117">
-        <v>10</v>
-      </c>
       <c r="H117">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I117">
         <v>2</v>
       </c>
-      <c r="N117">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="O117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118" s="1">
         <v>44533</v>
       </c>
@@ -3264,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E118">
         <v>15</v>
@@ -3273,7 +3310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17">
       <c r="A119" s="1">
         <v>44533</v>
       </c>
@@ -3290,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17">
       <c r="A120" s="1">
         <v>44533</v>
       </c>
@@ -3301,10 +3338,10 @@
         <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
       <c r="A121" s="1">
         <v>44533</v>
       </c>
@@ -3315,16 +3352,16 @@
         <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
       <c r="A122" s="1">
         <v>44533</v>
       </c>
@@ -3335,16 +3372,16 @@
         <v>20</v>
       </c>
       <c r="D122" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
       <c r="A123" s="1">
         <v>44533</v>
       </c>
@@ -3355,10 +3392,10 @@
         <v>25</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" s="1">
         <v>44533</v>
       </c>
@@ -3369,7 +3406,7 @@
         <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E124">
         <v>5</v>
@@ -3378,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17">
       <c r="A125" s="1">
         <v>44533</v>
       </c>
@@ -3389,19 +3426,19 @@
         <v>35</v>
       </c>
       <c r="D125" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F125">
         <v>1</v>
       </c>
-      <c r="G125">
-        <v>5</v>
-      </c>
-      <c r="I125" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H125">
+        <v>5</v>
+      </c>
+      <c r="J125" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126" s="1">
         <v>44533</v>
       </c>
@@ -3417,14 +3454,14 @@
       <c r="F126">
         <v>5</v>
       </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
       <c r="A127" s="1">
         <v>44533</v>
       </c>
@@ -3435,25 +3472,25 @@
         <v>45</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="I127">
-        <v>5</v>
-      </c>
-      <c r="K127">
+        <v>11</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>5</v>
+      </c>
+      <c r="L127">
         <v>25</v>
       </c>
-      <c r="O127">
-        <v>1</v>
-      </c>
-      <c r="P127" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P127">
+        <v>1</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
       <c r="A128" s="1">
         <v>44533</v>
       </c>
@@ -3464,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E128">
         <v>30</v>
@@ -3473,7 +3510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19">
       <c r="A129" s="1">
         <v>44533</v>
       </c>
@@ -3484,10 +3521,10 @@
         <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="1">
         <v>44533</v>
       </c>
@@ -3498,13 +3535,13 @@
         <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E130">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19">
       <c r="A131" s="1">
         <v>44533</v>
       </c>
@@ -3515,13 +3552,13 @@
         <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19">
       <c r="A132" s="1">
         <v>44533</v>
       </c>
@@ -3532,10 +3569,10 @@
         <v>20</v>
       </c>
       <c r="D132" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="1">
         <v>44533</v>
       </c>
@@ -3546,13 +3583,13 @@
         <v>25</v>
       </c>
       <c r="D133" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E133">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19">
       <c r="A134" s="1">
         <v>44533</v>
       </c>
@@ -3563,10 +3600,10 @@
         <v>30</v>
       </c>
       <c r="D134" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="1">
         <v>44533</v>
       </c>
@@ -3577,13 +3614,13 @@
         <v>35</v>
       </c>
       <c r="D135" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E135">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19">
       <c r="A136" s="1">
         <v>44533</v>
       </c>
@@ -3596,17 +3633,17 @@
       <c r="E136">
         <v>2</v>
       </c>
-      <c r="H136">
-        <v>2</v>
-      </c>
       <c r="I136">
         <v>2</v>
       </c>
-      <c r="K136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="1">
         <v>44533</v>
       </c>
@@ -3619,26 +3656,26 @@
       <c r="F137">
         <v>2</v>
       </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-      <c r="I137">
-        <v>10</v>
-      </c>
-      <c r="K137">
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="J137">
         <v>10</v>
       </c>
       <c r="L137">
-        <v>1</v>
-      </c>
-      <c r="Q137">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
       </c>
       <c r="R137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="S137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="1">
         <v>44533</v>
       </c>
@@ -3649,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E138">
         <v>35</v>
@@ -3658,7 +3695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19">
       <c r="A139" s="1">
         <v>44533</v>
       </c>
@@ -3669,10 +3706,10 @@
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="1">
         <v>44533</v>
       </c>
@@ -3683,13 +3720,13 @@
         <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="1">
         <v>44533</v>
       </c>
@@ -3700,10 +3737,10 @@
         <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="1">
         <v>44533</v>
       </c>
@@ -3714,13 +3751,13 @@
         <v>20</v>
       </c>
       <c r="D142" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E142" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="1">
         <v>44533</v>
       </c>
@@ -3731,10 +3768,10 @@
         <v>25</v>
       </c>
       <c r="D143" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" s="1">
         <v>44533</v>
       </c>
@@ -3745,10 +3782,10 @@
         <v>30</v>
       </c>
       <c r="D144" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20">
       <c r="A145" s="1">
         <v>44533</v>
       </c>
@@ -3759,10 +3796,10 @@
         <v>35</v>
       </c>
       <c r="D145" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20">
       <c r="A146" s="1">
         <v>44533</v>
       </c>
@@ -3773,10 +3810,10 @@
         <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20">
       <c r="A147" s="1">
         <v>44533</v>
       </c>
@@ -3787,10 +3824,10 @@
         <v>45</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20">
       <c r="A148" s="1">
         <v>44533</v>
       </c>
@@ -3801,13 +3838,13 @@
         <v>50</v>
       </c>
       <c r="D148" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20">
       <c r="A149" s="1">
         <v>44533</v>
       </c>
@@ -3818,13 +3855,13 @@
         <v>55</v>
       </c>
       <c r="D149" t="s">
-        <v>28</v>
-      </c>
-      <c r="G149" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H149" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20">
       <c r="A150" s="1">
         <v>44533</v>
       </c>
@@ -3835,13 +3872,13 @@
         <v>60</v>
       </c>
       <c r="D150" t="s">
-        <v>28</v>
-      </c>
-      <c r="G150" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H150" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20">
       <c r="A151" s="1">
         <v>44533</v>
       </c>
@@ -3852,13 +3889,13 @@
         <v>65</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
-      </c>
-      <c r="G151" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H151" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20">
       <c r="A152" s="1">
         <v>44533</v>
       </c>
@@ -3869,19 +3906,19 @@
         <v>70</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
-      </c>
-      <c r="G152" t="s">
-        <v>29</v>
-      </c>
-      <c r="S152">
+        <v>32</v>
+      </c>
+      <c r="H152" t="s">
+        <v>32</v>
+      </c>
+      <c r="T152">
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20">
       <c r="A153" s="1">
         <v>44533</v>
       </c>
@@ -3892,25 +3929,25 @@
         <v>75</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
-      </c>
-      <c r="J153">
-        <v>1</v>
-      </c>
-      <c r="L153">
-        <v>1</v>
-      </c>
-      <c r="P153">
-        <v>1</v>
-      </c>
-      <c r="S153">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="Q153">
+        <v>1</v>
+      </c>
+      <c r="T153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20">
       <c r="A154" s="1">
         <v>44533</v>
       </c>
@@ -3921,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E154">
         <v>85</v>
@@ -3930,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20">
       <c r="A155" s="1">
         <v>44533</v>
       </c>
@@ -3941,13 +3978,13 @@
         <v>5</v>
       </c>
       <c r="D155" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20">
       <c r="A156" s="1">
         <v>44533</v>
       </c>
@@ -3958,13 +3995,13 @@
         <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E156">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20">
       <c r="A157" s="1">
         <v>44533</v>
       </c>
@@ -3981,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20">
       <c r="A158" s="1">
         <v>44533</v>
       </c>
@@ -3992,13 +4029,13 @@
         <v>20</v>
       </c>
       <c r="D158" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F158">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20">
       <c r="A159" s="1">
         <v>44533</v>
       </c>
@@ -4009,13 +4046,13 @@
         <v>25</v>
       </c>
       <c r="D159" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E159">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20">
       <c r="A160" s="1">
         <v>44533</v>
       </c>
@@ -4026,10 +4063,10 @@
         <v>30</v>
       </c>
       <c r="D160" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" s="1">
         <v>44533</v>
       </c>
@@ -4042,11 +4079,11 @@
       <c r="E161">
         <v>1</v>
       </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" s="1">
         <v>44533</v>
       </c>
@@ -4057,13 +4094,13 @@
         <v>40</v>
       </c>
       <c r="D162" t="s">
-        <v>28</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="1">
         <v>44533</v>
       </c>
@@ -4079,23 +4116,23 @@
       <c r="F163">
         <v>1</v>
       </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="I163">
-        <v>1</v>
-      </c>
-      <c r="K163">
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="J163">
         <v>1</v>
       </c>
       <c r="L163">
         <v>1</v>
       </c>
-      <c r="N163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="O163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" s="1">
         <v>44533</v>
       </c>
@@ -4106,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="D164" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E164">
         <v>10</v>
@@ -4115,7 +4152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15">
       <c r="A165" s="1">
         <v>44533</v>
       </c>
@@ -4126,7 +4163,7 @@
         <v>5</v>
       </c>
       <c r="D165" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E165">
         <v>10</v>
@@ -4134,11 +4171,11 @@
       <c r="F165">
         <v>5</v>
       </c>
-      <c r="H165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="1">
         <v>44533</v>
       </c>
@@ -4149,7 +4186,7 @@
         <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E166">
         <v>5</v>
@@ -4158,7 +4195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15">
       <c r="A167" s="1">
         <v>44533</v>
       </c>
@@ -4169,7 +4206,7 @@
         <v>15</v>
       </c>
       <c r="D167" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -4178,7 +4215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15">
       <c r="A168" s="1">
         <v>44533</v>
       </c>
@@ -4189,16 +4226,16 @@
         <v>20</v>
       </c>
       <c r="D168" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E168" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F168">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15">
       <c r="A169" s="1">
         <v>44533</v>
       </c>
@@ -4209,13 +4246,13 @@
         <v>25</v>
       </c>
       <c r="D169" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="1">
         <v>44533</v>
       </c>
@@ -4226,16 +4263,16 @@
         <v>30</v>
       </c>
       <c r="D170" t="s">
-        <v>28</v>
-      </c>
-      <c r="G170">
-        <v>1</v>
-      </c>
-      <c r="H170" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="1">
         <v>44533</v>
       </c>
@@ -4246,13 +4283,13 @@
         <v>35</v>
       </c>
       <c r="D171" t="s">
-        <v>30</v>
-      </c>
-      <c r="G171">
+        <v>33</v>
+      </c>
+      <c r="H171">
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15">
       <c r="A172" s="1">
         <v>44533</v>
       </c>
@@ -4263,7 +4300,7 @@
         <v>40</v>
       </c>
       <c r="D172" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E172">
         <v>5</v>
@@ -4271,17 +4308,17 @@
       <c r="F172">
         <v>1</v>
       </c>
-      <c r="G172">
-        <v>10</v>
-      </c>
       <c r="H172">
-        <v>5</v>
-      </c>
-      <c r="N172">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I172">
+        <v>5</v>
+      </c>
+      <c r="O172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="1">
         <v>44533</v>
       </c>
@@ -4292,25 +4329,25 @@
         <v>45</v>
       </c>
       <c r="D173" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F173">
         <v>5</v>
       </c>
-      <c r="G173">
-        <v>10</v>
-      </c>
       <c r="H173">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I173">
         <v>2</v>
       </c>
-      <c r="N173">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J173">
+        <v>2</v>
+      </c>
+      <c r="O173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="1">
         <v>44576</v>
       </c>
@@ -4321,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E174">
         <v>3</v>
@@ -4330,7 +4367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15">
       <c r="A175" s="1">
         <v>44576</v>
       </c>
@@ -4341,13 +4378,13 @@
         <v>5</v>
       </c>
       <c r="D175" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E175">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15">
       <c r="A176" s="1">
         <v>44576</v>
       </c>
@@ -4358,10 +4395,10 @@
         <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
       <c r="A177" s="1">
         <v>44576</v>
       </c>
@@ -4372,13 +4409,13 @@
         <v>15</v>
       </c>
       <c r="D177" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15">
       <c r="A178" s="1">
         <v>44576</v>
       </c>
@@ -4389,13 +4426,13 @@
         <v>20</v>
       </c>
       <c r="D178" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15">
       <c r="A179" s="1">
         <v>44576</v>
       </c>
@@ -4406,13 +4443,13 @@
         <v>25</v>
       </c>
       <c r="D179" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F179">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15">
       <c r="A180" s="1">
         <v>44576</v>
       </c>
@@ -4423,7 +4460,7 @@
         <v>30</v>
       </c>
       <c r="D180" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E180">
         <v>5</v>
@@ -4431,14 +4468,14 @@
       <c r="F180">
         <v>3</v>
       </c>
-      <c r="G180">
-        <v>1</v>
-      </c>
       <c r="H180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
       <c r="A181" s="1">
         <v>44576</v>
       </c>
@@ -4449,22 +4486,22 @@
         <v>35</v>
       </c>
       <c r="D181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F181">
         <v>2</v>
       </c>
-      <c r="G181">
-        <v>2</v>
-      </c>
       <c r="H181">
-        <v>10</v>
-      </c>
-      <c r="N181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I181">
+        <v>10</v>
+      </c>
+      <c r="O181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
       <c r="A182" s="1">
         <v>44576</v>
       </c>
@@ -4475,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="D182" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E182">
         <v>20</v>
@@ -4484,7 +4521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15">
       <c r="A183" s="1">
         <v>44576</v>
       </c>
@@ -4495,10 +4532,10 @@
         <v>5</v>
       </c>
       <c r="D183" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
       <c r="A184" s="1">
         <v>44576</v>
       </c>
@@ -4509,13 +4546,13 @@
         <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E184">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15">
       <c r="A185" s="1">
         <v>44576</v>
       </c>
@@ -4526,10 +4563,10 @@
         <v>15</v>
       </c>
       <c r="D185" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
       <c r="A186" s="1">
         <v>44576</v>
       </c>
@@ -4540,13 +4577,13 @@
         <v>20</v>
       </c>
       <c r="D186" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E186">
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15">
       <c r="A187" s="1">
         <v>44576</v>
       </c>
@@ -4557,7 +4594,7 @@
         <v>25</v>
       </c>
       <c r="D187" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -4565,14 +4602,14 @@
       <c r="F187">
         <v>10</v>
       </c>
-      <c r="G187">
-        <v>1</v>
-      </c>
       <c r="H187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15">
       <c r="A188" s="1">
         <v>44576</v>
       </c>
@@ -4585,11 +4622,11 @@
       <c r="E188">
         <v>1</v>
       </c>
-      <c r="H188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15">
       <c r="A189" s="1">
         <v>44576</v>
       </c>
@@ -4605,17 +4642,17 @@
       <c r="F189">
         <v>5</v>
       </c>
-      <c r="G189">
-        <v>1</v>
-      </c>
       <c r="H189">
-        <v>5</v>
-      </c>
-      <c r="L189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>5</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15">
       <c r="A190" s="1">
         <v>44576</v>
       </c>
@@ -4626,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="D190" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E190">
         <v>25</v>
@@ -4635,7 +4672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15">
       <c r="A191" s="1">
         <v>44576</v>
       </c>
@@ -4646,13 +4683,13 @@
         <v>5</v>
       </c>
       <c r="D191" t="s">
-        <v>28</v>
-      </c>
-      <c r="G191" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H191" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15">
       <c r="A192" s="1">
         <v>44576</v>
       </c>
@@ -4663,13 +4700,13 @@
         <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E192" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1">
         <v>44576</v>
       </c>
@@ -4680,10 +4717,10 @@
         <v>15</v>
       </c>
       <c r="D193" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1">
         <v>44576</v>
       </c>
@@ -4694,10 +4731,10 @@
         <v>20</v>
       </c>
       <c r="D194" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1">
         <v>44576</v>
       </c>
@@ -4708,10 +4745,10 @@
         <v>25</v>
       </c>
       <c r="D195" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1">
         <v>44576</v>
       </c>
@@ -4722,13 +4759,13 @@
         <v>30</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
-      </c>
-      <c r="H196" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I196" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1">
         <v>44576</v>
       </c>
@@ -4739,10 +4776,10 @@
         <v>35</v>
       </c>
       <c r="D197" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1">
         <v>44576</v>
       </c>
@@ -4753,13 +4790,13 @@
         <v>40</v>
       </c>
       <c r="D198" t="s">
-        <v>7</v>
-      </c>
-      <c r="H198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1">
         <v>44576</v>
       </c>
@@ -4770,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E199">
         <v>40</v>
@@ -4779,7 +4816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9">
       <c r="A200" s="1">
         <v>44576</v>
       </c>
@@ -4790,13 +4827,13 @@
         <v>5</v>
       </c>
       <c r="D200" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F200">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9">
       <c r="A201" s="1">
         <v>44576</v>
       </c>
@@ -4807,13 +4844,13 @@
         <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1">
         <v>44576</v>
       </c>
@@ -4824,13 +4861,13 @@
         <v>15</v>
       </c>
       <c r="D202" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F202" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1">
         <v>44576</v>
       </c>
@@ -4841,13 +4878,13 @@
         <v>20</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
-      </c>
-      <c r="G203" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H203" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1">
         <v>44576</v>
       </c>
@@ -4858,13 +4895,13 @@
         <v>25</v>
       </c>
       <c r="D204" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F204" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1">
         <v>44576</v>
       </c>
@@ -4875,13 +4912,13 @@
         <v>30</v>
       </c>
       <c r="D205" t="s">
-        <v>28</v>
-      </c>
-      <c r="G205" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H205" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1">
         <v>44576</v>
       </c>
@@ -4892,16 +4929,16 @@
         <v>35</v>
       </c>
       <c r="D206" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
-      </c>
-      <c r="G206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1">
         <v>44576</v>
       </c>
@@ -4912,13 +4949,13 @@
         <v>40</v>
       </c>
       <c r="D207" t="s">
-        <v>7</v>
-      </c>
-      <c r="H207" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I207" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1">
         <v>44576</v>
       </c>
@@ -4928,14 +4965,14 @@
       <c r="C208">
         <v>45</v>
       </c>
-      <c r="G208" t="s">
-        <v>29</v>
-      </c>
       <c r="H208" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I208" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24">
       <c r="A209" s="1">
         <v>44576</v>
       </c>
@@ -4946,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="D209" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E209">
         <v>20</v>
@@ -4954,14 +4991,14 @@
       <c r="F209">
         <v>5</v>
       </c>
-      <c r="R209" t="s">
-        <v>29</v>
-      </c>
-      <c r="T209">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S209" t="s">
+        <v>32</v>
+      </c>
+      <c r="U209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24">
       <c r="A210" s="1">
         <v>44576</v>
       </c>
@@ -4972,7 +5009,7 @@
         <v>5</v>
       </c>
       <c r="D210" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E210">
         <v>10</v>
@@ -4980,11 +5017,11 @@
       <c r="F210">
         <v>5</v>
       </c>
-      <c r="H210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="I210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24">
       <c r="A211" s="1">
         <v>44576</v>
       </c>
@@ -4995,7 +5032,7 @@
         <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E211">
         <v>5</v>
@@ -5004,7 +5041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:24">
       <c r="A212" s="1">
         <v>44576</v>
       </c>
@@ -5020,11 +5057,11 @@
       <c r="F212">
         <v>2</v>
       </c>
-      <c r="G212" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H212" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24">
       <c r="A213" s="1">
         <v>44576</v>
       </c>
@@ -5035,13 +5072,13 @@
         <v>20</v>
       </c>
       <c r="D213" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F213">
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:24">
       <c r="A214" s="1">
         <v>44576</v>
       </c>
@@ -5052,10 +5089,10 @@
         <v>25</v>
       </c>
       <c r="D214" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24">
       <c r="A215" s="1">
         <v>44576</v>
       </c>
@@ -5066,13 +5103,13 @@
         <v>30</v>
       </c>
       <c r="D215" t="s">
-        <v>28</v>
-      </c>
-      <c r="G215" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H215" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24">
       <c r="A216" s="1">
         <v>44576</v>
       </c>
@@ -5083,16 +5120,16 @@
         <v>35</v>
       </c>
       <c r="D216" t="s">
-        <v>28</v>
-      </c>
-      <c r="G216">
-        <v>5</v>
-      </c>
-      <c r="U216">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H216">
+        <v>5</v>
+      </c>
+      <c r="V216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24">
       <c r="A217" s="1">
         <v>44576</v>
       </c>
@@ -5103,25 +5140,25 @@
         <v>40</v>
       </c>
       <c r="D217" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E217" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F217" t="s">
-        <v>29</v>
-      </c>
-      <c r="G217">
-        <v>1</v>
-      </c>
-      <c r="H217" t="s">
-        <v>29</v>
-      </c>
-      <c r="L217" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217" t="s">
+        <v>32</v>
+      </c>
+      <c r="M217" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24">
       <c r="A218" s="1">
         <v>44576</v>
       </c>
@@ -5132,25 +5169,25 @@
         <v>45</v>
       </c>
       <c r="D218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F218" t="s">
-        <v>29</v>
-      </c>
-      <c r="G218">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H218">
-        <v>2</v>
-      </c>
-      <c r="I218" t="s">
-        <v>29</v>
-      </c>
-      <c r="N218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>2</v>
+      </c>
+      <c r="J218" t="s">
+        <v>32</v>
+      </c>
+      <c r="O218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24">
       <c r="A219" s="1">
         <v>44608</v>
       </c>
@@ -5166,14 +5203,14 @@
       <c r="F219">
         <v>10</v>
       </c>
-      <c r="R219">
-        <v>2</v>
-      </c>
-      <c r="W219">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S219">
+        <v>2</v>
+      </c>
+      <c r="X219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24">
       <c r="A220" s="1">
         <v>44608</v>
       </c>
@@ -5184,7 +5221,7 @@
         <v>5</v>
       </c>
       <c r="D220" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E220">
         <v>2</v>
@@ -5192,14 +5229,14 @@
       <c r="F220">
         <v>1</v>
       </c>
-      <c r="G220">
-        <v>30</v>
-      </c>
-      <c r="T220">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H220">
+        <v>30</v>
+      </c>
+      <c r="U220">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24">
       <c r="A221" s="1">
         <v>44608</v>
       </c>
@@ -5210,19 +5247,19 @@
         <v>10</v>
       </c>
       <c r="D221" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F221">
         <v>5</v>
       </c>
-      <c r="G221">
-        <v>2</v>
-      </c>
-      <c r="T221">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="U221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24">
       <c r="A222" s="1">
         <v>44608</v>
       </c>
@@ -5233,10 +5270,10 @@
         <v>15</v>
       </c>
       <c r="D222" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24">
       <c r="A223" s="1">
         <v>44608</v>
       </c>
@@ -5247,10 +5284,10 @@
         <v>20</v>
       </c>
       <c r="D223" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24">
       <c r="A224" s="1">
         <v>44608</v>
       </c>
@@ -5266,11 +5303,11 @@
       <c r="F224">
         <v>10</v>
       </c>
-      <c r="V224">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26">
       <c r="A225" s="1">
         <v>44608</v>
       </c>
@@ -5281,22 +5318,22 @@
         <v>30</v>
       </c>
       <c r="D225" t="s">
-        <v>21</v>
-      </c>
-      <c r="G225">
-        <v>2</v>
-      </c>
-      <c r="V225">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="H225">
+        <v>2</v>
       </c>
       <c r="W225">
-        <v>1</v>
-      </c>
-      <c r="Y225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="X225">
+        <v>1</v>
+      </c>
+      <c r="Z225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:26">
       <c r="A226" s="1">
         <v>44608</v>
       </c>
@@ -5307,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="D226" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E226">
         <v>35</v>
@@ -5315,14 +5352,14 @@
       <c r="F226">
         <v>20</v>
       </c>
-      <c r="R226">
-        <v>2</v>
-      </c>
-      <c r="X226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S226">
+        <v>2</v>
+      </c>
+      <c r="Y226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26">
       <c r="A227" s="1">
         <v>44608</v>
       </c>
@@ -5333,13 +5370,13 @@
         <v>5</v>
       </c>
       <c r="D227" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F227">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:26">
       <c r="A228" s="1">
         <v>44608</v>
       </c>
@@ -5350,7 +5387,7 @@
         <v>10</v>
       </c>
       <c r="D228" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E228">
         <v>5</v>
@@ -5358,17 +5395,17 @@
       <c r="F228">
         <v>1</v>
       </c>
-      <c r="G228">
+      <c r="H228">
         <v>4</v>
       </c>
-      <c r="R228">
-        <v>2</v>
-      </c>
-      <c r="X228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S228">
+        <v>2</v>
+      </c>
+      <c r="Y228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26">
       <c r="A229" s="1">
         <v>44608</v>
       </c>
@@ -5379,13 +5416,13 @@
         <v>15</v>
       </c>
       <c r="D229" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F229">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:26">
       <c r="A230" s="1">
         <v>44608</v>
       </c>
@@ -5398,23 +5435,23 @@
       <c r="E230">
         <v>1</v>
       </c>
-      <c r="G230">
-        <v>2</v>
-      </c>
-      <c r="I230">
-        <v>1</v>
-      </c>
-      <c r="V230">
-        <v>2</v>
-      </c>
-      <c r="X230">
-        <v>1</v>
+      <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="W230">
+        <v>2</v>
       </c>
       <c r="Y230">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="Z230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26">
       <c r="A231" s="1">
         <v>44608</v>
       </c>
@@ -5427,17 +5464,17 @@
       <c r="F231">
         <v>5</v>
       </c>
-      <c r="G231">
-        <v>2</v>
-      </c>
-      <c r="V231">
-        <v>2</v>
-      </c>
-      <c r="Y231">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H231">
+        <v>2</v>
+      </c>
+      <c r="W231">
+        <v>2</v>
+      </c>
+      <c r="Z231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:26">
       <c r="A232" s="1">
         <v>44608</v>
       </c>
@@ -5448,19 +5485,19 @@
         <v>30</v>
       </c>
       <c r="D232" t="s">
-        <v>19</v>
-      </c>
-      <c r="G232">
-        <v>1</v>
-      </c>
-      <c r="V232">
-        <v>2</v>
-      </c>
-      <c r="Y232">
         <v>20</v>
       </c>
-    </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="W232">
+        <v>2</v>
+      </c>
+      <c r="Z232">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233" spans="1:26">
       <c r="A233" s="1">
         <v>44608</v>
       </c>
@@ -5476,17 +5513,17 @@
       <c r="F233">
         <v>5</v>
       </c>
-      <c r="G233">
-        <v>1</v>
-      </c>
-      <c r="V233">
-        <v>5</v>
+      <c r="H233">
+        <v>1</v>
       </c>
       <c r="W233">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="X233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:26">
       <c r="A234" s="1">
         <v>44608</v>
       </c>
@@ -5497,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="D234" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E234">
         <v>45</v>
@@ -5505,11 +5542,11 @@
       <c r="F234">
         <v>3</v>
       </c>
-      <c r="X234">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:26">
       <c r="A235" s="1">
         <v>44608</v>
       </c>
@@ -5522,14 +5559,14 @@
       <c r="F235">
         <v>1</v>
       </c>
-      <c r="G235">
-        <v>1</v>
-      </c>
-      <c r="T235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="U235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:26">
       <c r="A236" s="1">
         <v>44608</v>
       </c>
@@ -5540,13 +5577,13 @@
         <v>10</v>
       </c>
       <c r="D236" t="s">
-        <v>28</v>
-      </c>
-      <c r="G236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:26">
       <c r="A237" s="1">
         <v>44608</v>
       </c>
@@ -5556,14 +5593,14 @@
       <c r="C237">
         <v>15</v>
       </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-      <c r="X237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="Y237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:26">
       <c r="A238" s="1">
         <v>44608</v>
       </c>
@@ -5573,14 +5610,14 @@
       <c r="C238">
         <v>20</v>
       </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="V238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="W238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26">
       <c r="A239" s="1">
         <v>44608</v>
       </c>
@@ -5591,10 +5628,10 @@
         <v>25</v>
       </c>
       <c r="D239" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26">
       <c r="A240" s="1">
         <v>44608</v>
       </c>
@@ -5605,13 +5642,13 @@
         <v>30</v>
       </c>
       <c r="D240" t="s">
-        <v>28</v>
-      </c>
-      <c r="G240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26">
       <c r="A241" s="1">
         <v>44608</v>
       </c>
@@ -5622,7 +5659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:26">
       <c r="A242" s="1">
         <v>44608</v>
       </c>
@@ -5633,25 +5670,25 @@
         <v>40</v>
       </c>
       <c r="D242" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F242">
         <v>1</v>
       </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="V242">
-        <v>3</v>
+      <c r="H242">
+        <v>1</v>
       </c>
       <c r="W242">
-        <v>2</v>
-      </c>
-      <c r="Y242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="X242">
+        <v>2</v>
+      </c>
+      <c r="Z242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26">
       <c r="A243" s="1">
         <v>44608</v>
       </c>
@@ -5662,13 +5699,13 @@
         <v>45</v>
       </c>
       <c r="D243" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="Z243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:26">
       <c r="A244" s="1">
         <v>44608</v>
       </c>
@@ -5679,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="D244" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E244">
         <v>40</v>
@@ -5688,7 +5725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:26">
       <c r="A245" s="1">
         <v>44608</v>
       </c>
@@ -5699,13 +5736,13 @@
         <v>5</v>
       </c>
       <c r="D245" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:26">
       <c r="A246" s="1">
         <v>44608</v>
       </c>
@@ -5718,11 +5755,11 @@
       <c r="F246">
         <v>1</v>
       </c>
-      <c r="T246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:26">
       <c r="A247" s="1">
         <v>44608</v>
       </c>
@@ -5733,10 +5770,10 @@
         <v>15</v>
       </c>
       <c r="D247" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26">
       <c r="A248" s="1">
         <v>44608</v>
       </c>
@@ -5747,13 +5784,13 @@
         <v>20</v>
       </c>
       <c r="F248" t="s">
-        <v>29</v>
-      </c>
-      <c r="G248" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H248" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26">
       <c r="A249" s="1">
         <v>44608</v>
       </c>
@@ -5763,14 +5800,14 @@
       <c r="C249">
         <v>25</v>
       </c>
-      <c r="G249" t="s">
-        <v>29</v>
-      </c>
       <c r="H249" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I249" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26">
       <c r="A250" s="1">
         <v>44608</v>
       </c>
@@ -5780,14 +5817,14 @@
       <c r="C250">
         <v>30</v>
       </c>
-      <c r="G250" t="s">
-        <v>29</v>
-      </c>
       <c r="H250" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I250" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26">
       <c r="A251" s="1">
         <v>44608</v>
       </c>
@@ -5798,19 +5835,19 @@
         <v>35</v>
       </c>
       <c r="D251" t="s">
-        <v>7</v>
-      </c>
-      <c r="G251" t="s">
-        <v>29</v>
-      </c>
-      <c r="H251">
-        <v>1</v>
-      </c>
-      <c r="Y251" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H251" t="s">
+        <v>32</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="Z251" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26">
       <c r="A252" s="1">
         <v>44608</v>
       </c>
@@ -5820,14 +5857,14 @@
       <c r="C252">
         <v>40</v>
       </c>
-      <c r="G252" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y252" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H252" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z252" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26">
       <c r="A253" s="1">
         <v>44608</v>
       </c>
@@ -5838,13 +5875,13 @@
         <v>45</v>
       </c>
       <c r="D253" t="s">
-        <v>7</v>
-      </c>
-      <c r="H253" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I253" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="254" spans="1:26">
       <c r="A254" s="1">
         <v>44608</v>
       </c>
@@ -5855,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="D254" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E254">
         <v>25</v>
@@ -5863,20 +5900,20 @@
       <c r="F254">
         <v>15</v>
       </c>
-      <c r="R254" t="s">
-        <v>29</v>
-      </c>
-      <c r="T254">
-        <v>2</v>
-      </c>
-      <c r="V254">
-        <v>1</v>
-      </c>
-      <c r="W254" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S254" t="s">
+        <v>32</v>
+      </c>
+      <c r="U254">
+        <v>2</v>
+      </c>
+      <c r="W254">
+        <v>1</v>
+      </c>
+      <c r="X254" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26">
       <c r="A255" s="1">
         <v>44608</v>
       </c>
@@ -5887,7 +5924,7 @@
         <v>5</v>
       </c>
       <c r="D255" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E255">
         <v>5</v>
@@ -5895,14 +5932,14 @@
       <c r="F255">
         <v>1</v>
       </c>
-      <c r="G255" t="s">
-        <v>29</v>
-      </c>
-      <c r="T255" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H255" t="s">
+        <v>32</v>
+      </c>
+      <c r="U255" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="256" spans="1:26">
       <c r="A256" s="1">
         <v>44608</v>
       </c>
@@ -5913,7 +5950,7 @@
         <v>10</v>
       </c>
       <c r="D256" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E256">
         <v>5</v>
@@ -5921,11 +5958,11 @@
       <c r="F256">
         <v>2</v>
       </c>
-      <c r="V256" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W256" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="257" spans="1:28">
       <c r="A257" s="1">
         <v>44608</v>
       </c>
@@ -5936,13 +5973,13 @@
         <v>15</v>
       </c>
       <c r="E257" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F257" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="258" spans="1:28">
       <c r="A258" s="1">
         <v>44608</v>
       </c>
@@ -5953,13 +5990,13 @@
         <v>20</v>
       </c>
       <c r="E258" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F258" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="259" spans="1:28">
       <c r="A259" s="1">
         <v>44608</v>
       </c>
@@ -5970,10 +6007,10 @@
         <v>25</v>
       </c>
       <c r="E259" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="260" spans="1:28">
       <c r="A260" s="1">
         <v>44608</v>
       </c>
@@ -5984,25 +6021,25 @@
         <v>30</v>
       </c>
       <c r="D260" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F260" t="s">
-        <v>29</v>
-      </c>
-      <c r="G260">
-        <v>2</v>
-      </c>
-      <c r="H260" t="s">
-        <v>29</v>
-      </c>
-      <c r="T260" t="s">
-        <v>29</v>
-      </c>
-      <c r="V260" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H260">
+        <v>2</v>
+      </c>
+      <c r="I260" t="s">
+        <v>32</v>
+      </c>
+      <c r="U260" t="s">
+        <v>32</v>
+      </c>
+      <c r="W260" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="261" spans="1:28">
       <c r="A261" s="1">
         <v>44608</v>
       </c>
@@ -6012,17 +6049,17 @@
       <c r="C261">
         <v>35</v>
       </c>
-      <c r="G261">
-        <v>5</v>
-      </c>
       <c r="H261">
         <v>5</v>
       </c>
-      <c r="L261" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I261">
+        <v>5</v>
+      </c>
+      <c r="M261" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="262" spans="1:28">
       <c r="A262" s="1">
         <v>44608</v>
       </c>
@@ -6032,17 +6069,17 @@
       <c r="C262">
         <v>40</v>
       </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
       <c r="H262">
         <v>1</v>
       </c>
-      <c r="R262" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="S262" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="263" spans="1:28">
       <c r="A263" s="1">
         <v>44608</v>
       </c>
@@ -6053,19 +6090,19 @@
         <v>45</v>
       </c>
       <c r="D263" t="s">
-        <v>7</v>
-      </c>
-      <c r="G263" t="s">
-        <v>29</v>
-      </c>
-      <c r="H263">
-        <v>5</v>
-      </c>
-      <c r="Y263" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H263" t="s">
+        <v>32</v>
+      </c>
+      <c r="I263">
+        <v>5</v>
+      </c>
+      <c r="Z263" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="264" spans="1:28">
       <c r="A264" s="1">
         <v>44608</v>
       </c>
@@ -6076,20 +6113,956 @@
         <v>50</v>
       </c>
       <c r="D264" t="s">
-        <v>7</v>
-      </c>
-      <c r="G264" t="s">
-        <v>29</v>
-      </c>
-      <c r="H264">
-        <v>2</v>
-      </c>
-      <c r="J264">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="H264" t="s">
+        <v>32</v>
+      </c>
+      <c r="I264">
+        <v>2</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:28">
+      <c r="A265" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265" t="s">
+        <v>35</v>
+      </c>
+      <c r="E265">
+        <v>15</v>
+      </c>
+      <c r="F265">
+        <v>10</v>
+      </c>
+      <c r="G265">
+        <v>5</v>
+      </c>
+      <c r="S265">
+        <v>2</v>
+      </c>
+      <c r="U265">
+        <v>1</v>
+      </c>
+      <c r="AB265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:28">
+      <c r="A266" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>5</v>
+      </c>
+      <c r="D266" t="s">
+        <v>31</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>2</v>
+      </c>
+      <c r="H266">
+        <v>45</v>
+      </c>
+      <c r="U266">
+        <v>30</v>
+      </c>
+      <c r="X266">
+        <v>3</v>
+      </c>
+      <c r="Y266">
+        <v>2</v>
+      </c>
+      <c r="AB266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:28">
+      <c r="A267" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>10</v>
+      </c>
+      <c r="D267" t="s">
+        <v>23</v>
+      </c>
+      <c r="F267">
+        <v>2</v>
+      </c>
+      <c r="G267">
+        <v>4</v>
+      </c>
+      <c r="H267">
+        <v>2</v>
+      </c>
+      <c r="U267">
+        <v>3</v>
+      </c>
+      <c r="X267">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:28">
+      <c r="A268" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>15</v>
+      </c>
+      <c r="D268" t="s">
+        <v>28</v>
+      </c>
+      <c r="E268">
+        <v>5</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="Y268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:28">
+      <c r="A269" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>20</v>
+      </c>
+      <c r="D269" t="s">
+        <v>36</v>
+      </c>
+      <c r="H269">
+        <v>5</v>
+      </c>
+      <c r="U269">
+        <v>10</v>
+      </c>
+      <c r="Y269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:28">
+      <c r="A270" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>25</v>
+      </c>
+      <c r="D270" t="s">
+        <v>23</v>
+      </c>
+      <c r="H270">
+        <v>5</v>
+      </c>
+      <c r="U270">
+        <v>10</v>
+      </c>
+      <c r="Y270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:28">
+      <c r="A271" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>30</v>
+      </c>
+      <c r="D271" t="s">
+        <v>37</v>
+      </c>
+      <c r="E271">
+        <v>5</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="G271">
+        <v>10</v>
+      </c>
+      <c r="H271">
+        <v>3</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="W271">
+        <v>3</v>
+      </c>
+      <c r="Y271">
+        <v>1</v>
+      </c>
+      <c r="Z271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:28">
+      <c r="A272" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>35</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>3</v>
+      </c>
+      <c r="H272">
+        <v>10</v>
+      </c>
+      <c r="I272">
+        <v>10</v>
+      </c>
+      <c r="O272">
+        <v>1</v>
+      </c>
+      <c r="X272">
+        <v>1</v>
+      </c>
+      <c r="Y272">
+        <v>1</v>
+      </c>
+      <c r="Z272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:28">
+      <c r="A273" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273" t="s">
+        <v>28</v>
+      </c>
+      <c r="E273">
+        <v>30</v>
+      </c>
+      <c r="F273">
+        <v>25</v>
+      </c>
+      <c r="G273">
+        <v>5</v>
+      </c>
+      <c r="S273">
+        <v>1</v>
+      </c>
+      <c r="U273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:28">
+      <c r="A274" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B274">
+        <v>2</v>
+      </c>
+      <c r="C274">
+        <v>5</v>
+      </c>
+      <c r="D274" t="s">
+        <v>36</v>
+      </c>
+      <c r="F274">
+        <v>2</v>
+      </c>
+      <c r="H274">
+        <v>3</v>
+      </c>
+      <c r="U274">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:28">
+      <c r="A275" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B275">
+        <v>2</v>
+      </c>
+      <c r="C275">
+        <v>10</v>
+      </c>
+      <c r="D275" t="s">
+        <v>28</v>
+      </c>
+      <c r="E275">
+        <v>5</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+      <c r="Y275">
+        <v>3</v>
+      </c>
+      <c r="AB275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:28">
+      <c r="A276" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276">
+        <v>15</v>
+      </c>
+      <c r="D276" t="s">
+        <v>37</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:28">
+      <c r="A277" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>20</v>
+      </c>
+      <c r="D277" t="s">
+        <v>38</v>
+      </c>
+      <c r="H277">
+        <v>3</v>
+      </c>
+      <c r="W277">
+        <v>1</v>
+      </c>
+      <c r="Z277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:28">
+      <c r="A278" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B278">
+        <v>2</v>
+      </c>
+      <c r="C278">
+        <v>25</v>
+      </c>
+      <c r="D278" t="s">
+        <v>31</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>5</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>1</v>
+      </c>
+      <c r="Z278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:28">
+      <c r="A279" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+      <c r="C279">
+        <v>30</v>
+      </c>
+      <c r="D279" t="s">
+        <v>38</v>
+      </c>
+      <c r="H279">
+        <v>2</v>
+      </c>
+      <c r="O279">
+        <v>1</v>
+      </c>
+      <c r="W279">
+        <v>4</v>
+      </c>
+      <c r="Z279">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:28">
+      <c r="A280" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B280">
+        <v>2</v>
+      </c>
+      <c r="C280">
+        <v>35</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="W280">
+        <v>4</v>
+      </c>
+      <c r="Z280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:28">
+      <c r="A281" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B281">
+        <v>3</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281">
+        <v>20</v>
+      </c>
+      <c r="F281">
+        <v>2</v>
+      </c>
+      <c r="G281">
+        <v>2</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="X281">
+        <v>1</v>
+      </c>
+      <c r="Y281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:28">
+      <c r="A282" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B282">
+        <v>3</v>
+      </c>
+      <c r="C282">
+        <v>5</v>
+      </c>
+      <c r="D282" t="s">
+        <v>39</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:28">
+      <c r="A283" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B283">
+        <v>3</v>
+      </c>
+      <c r="C283">
+        <v>10</v>
+      </c>
+      <c r="D283" t="s">
+        <v>37</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:28">
+      <c r="A284" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B284">
+        <v>3</v>
+      </c>
+      <c r="C284">
+        <v>15</v>
+      </c>
+      <c r="D284" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="285" spans="1:28">
+      <c r="A285" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B285">
+        <v>3</v>
+      </c>
+      <c r="C285">
+        <v>20</v>
+      </c>
+      <c r="D285" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="286" spans="1:28">
+      <c r="A286" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286">
+        <v>25</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="Z286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:28">
+      <c r="A287" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B287">
+        <v>3</v>
+      </c>
+      <c r="C287">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="288" spans="1:28">
+      <c r="A288" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B288">
+        <v>3</v>
+      </c>
+      <c r="C288">
+        <v>35</v>
+      </c>
+      <c r="D288" t="s">
+        <v>8</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288">
+        <v>5</v>
+      </c>
+      <c r="Z288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27">
+      <c r="A289" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B289">
+        <v>3</v>
+      </c>
+      <c r="C289">
+        <v>40</v>
+      </c>
+      <c r="D289" t="s">
+        <v>23</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
+      <c r="I289">
+        <v>2</v>
+      </c>
+      <c r="X289">
+        <v>4</v>
+      </c>
+      <c r="Z289">
+        <v>2</v>
+      </c>
+      <c r="AA289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:27">
+      <c r="A290" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B290">
+        <v>3</v>
+      </c>
+      <c r="C290">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="291" spans="1:27">
+      <c r="A291" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B291">
+        <v>3</v>
+      </c>
+      <c r="C291">
+        <v>50</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:27">
+      <c r="A292" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B292">
+        <v>3</v>
+      </c>
+      <c r="C292">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="293" spans="1:27">
+      <c r="A293" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B293">
+        <v>4</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:27">
+      <c r="A294" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B294">
+        <v>4</v>
+      </c>
+      <c r="C294">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:27">
+      <c r="A295" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B295">
+        <v>4</v>
+      </c>
+      <c r="C295">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:27">
+      <c r="A296" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B296">
+        <v>4</v>
+      </c>
+      <c r="C296">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297" spans="1:27">
+      <c r="A297" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B297">
+        <v>4</v>
+      </c>
+      <c r="C297">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="298" spans="1:27">
+      <c r="A298" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B298">
+        <v>4</v>
+      </c>
+      <c r="C298">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="299" spans="1:27">
+      <c r="A299" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B299">
+        <v>4</v>
+      </c>
+      <c r="C299">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="300" spans="1:27">
+      <c r="A300" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B300">
+        <v>4</v>
+      </c>
+      <c r="C300">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="301" spans="1:27">
+      <c r="A301" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B301">
+        <v>4</v>
+      </c>
+      <c r="C301">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="302" spans="1:27">
+      <c r="A302" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="303" spans="1:27">
+      <c r="A303" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="304" spans="1:27">
+      <c r="A304" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="1">
+        <v>44621</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/GW_seaweed_seasonality_transect_data1.xlsx
+++ b/GW_seaweed_seasonality_transect_data1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="965" documentId="8_{38EC0476-1FF6-4D41-9D9E-0D99C2282F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08E5780F-5EC3-463E-B6C6-9F02EBBD2496}"/>
+  <xr:revisionPtr revIDLastSave="1302" documentId="8_{38EC0476-1FF6-4D41-9D9E-0D99C2282F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97599949-9C3A-498D-A6B1-A0322C80E43E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="51">
   <si>
     <t>sampling_date</t>
   </si>
@@ -100,7 +100,7 @@
     <t>petalonia_sp</t>
   </si>
   <si>
-    <t>odonthalia_sp</t>
+    <t>cryptosiphonia_woodii</t>
   </si>
   <si>
     <t>polysiphonia_sp</t>
@@ -119,6 +119,33 @@
   </si>
   <si>
     <t>ulva_long</t>
+  </si>
+  <si>
+    <t>fil_brown</t>
+  </si>
+  <si>
+    <t>fil_green</t>
+  </si>
+  <si>
+    <t>rhizoclonium_tortuosum</t>
+  </si>
+  <si>
+    <t>scytosiphon_sp</t>
+  </si>
+  <si>
+    <t>hollenbergia_subulata</t>
+  </si>
+  <si>
+    <t>nereocystis_luetkeana</t>
+  </si>
+  <si>
+    <t>desmarestia_viridis</t>
+  </si>
+  <si>
+    <t>alaria_marginata</t>
+  </si>
+  <si>
+    <t>ulva_linza</t>
   </si>
   <si>
     <t>fucus_distichus</t>
@@ -158,6 +185,9 @@
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>petalonia_fascia</t>
   </si>
 </sst>
 </file>
@@ -1007,11 +1037,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB336"/>
+  <dimension ref="A1:AL341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I291" sqref="I291"/>
+      <pane ySplit="1" topLeftCell="U331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF341" sqref="AF341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1025,7 +1055,7 @@
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1">
+    <row r="1" spans="1:38" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1110,8 +1140,38 @@
       <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" s="1">
         <v>44444</v>
       </c>
@@ -1122,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -1131,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:38">
       <c r="A3" s="1">
         <v>44444</v>
       </c>
@@ -1142,10 +1202,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" s="1">
         <v>44444</v>
       </c>
@@ -1156,10 +1216,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="1">
         <v>44444</v>
       </c>
@@ -1170,13 +1230,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:38">
       <c r="A6" s="1">
         <v>44444</v>
       </c>
@@ -1187,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" s="1">
         <v>44444</v>
       </c>
@@ -1201,10 +1261,10 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" s="1">
         <v>44444</v>
       </c>
@@ -1215,7 +1275,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1227,7 +1287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:38">
       <c r="A9" s="1">
         <v>44444</v>
       </c>
@@ -1238,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -1247,7 +1307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:38">
       <c r="A10" s="1">
         <v>44444</v>
       </c>
@@ -1258,13 +1318,13 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:38">
       <c r="A11" s="1">
         <v>44444</v>
       </c>
@@ -1275,13 +1335,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:38">
       <c r="A12" s="1">
         <v>44444</v>
       </c>
@@ -1292,7 +1352,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1301,7 +1361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:38">
       <c r="A13" s="1">
         <v>44444</v>
       </c>
@@ -1312,7 +1372,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1321,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:38">
       <c r="A14" s="1">
         <v>44444</v>
       </c>
@@ -1332,7 +1392,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1341,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:38">
       <c r="A15" s="1">
         <v>44444</v>
       </c>
@@ -1352,7 +1412,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1361,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:38">
       <c r="A16" s="1">
         <v>44444</v>
       </c>
@@ -1372,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>70</v>
@@ -1392,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1409,7 +1469,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1429,7 +1489,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>10</v>
@@ -1446,7 +1506,7 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1466,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1483,7 +1543,7 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -1500,7 +1560,7 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1514,7 +1574,7 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -1531,7 +1591,7 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>10</v>
@@ -1548,7 +1608,7 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H26">
         <v>30</v>
@@ -1565,7 +1625,7 @@
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>20</v>
@@ -1582,7 +1642,7 @@
         <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>10</v>
@@ -1599,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E29">
         <v>70</v>
@@ -1619,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -1636,7 +1696,7 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1650,7 +1710,7 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1670,7 +1730,7 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1690,7 +1750,7 @@
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1710,7 +1770,7 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1730,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -1750,7 +1810,7 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E37">
         <v>25</v>
@@ -1770,7 +1830,7 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -1790,7 +1850,7 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1810,7 +1870,7 @@
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1830,7 +1890,7 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -1847,7 +1907,7 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -1864,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E43">
         <v>30</v>
@@ -1884,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -1904,7 +1964,7 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1918,7 +1978,7 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -1938,7 +1998,7 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E47">
         <v>5</v>
@@ -1955,7 +2015,7 @@
         <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1969,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E49">
         <v>40</v>
@@ -1989,7 +2049,7 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2006,7 +2066,7 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E51">
         <v>20</v>
@@ -2026,7 +2086,7 @@
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -2046,7 +2106,7 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -2063,7 +2123,7 @@
         <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E54">
         <v>5</v>
@@ -2083,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E55">
         <v>40</v>
@@ -2103,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2117,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2137,7 +2197,7 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2157,7 +2217,7 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E59">
         <v>5</v>
@@ -2177,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E60">
         <v>70</v>
@@ -2197,7 +2257,7 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2217,7 +2277,7 @@
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2234,7 +2294,7 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2248,7 +2308,7 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E64">
         <v>10</v>
@@ -2271,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -2294,7 +2354,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E66">
         <v>30</v>
@@ -2314,7 +2374,7 @@
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E67">
         <v>10</v>
@@ -2334,7 +2394,7 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E68">
         <v>5</v>
@@ -2371,7 +2431,7 @@
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -2391,7 +2451,7 @@
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2422,7 +2482,7 @@
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -2442,7 +2502,7 @@
         <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2456,7 +2516,7 @@
         <v>30</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -2476,7 +2536,7 @@
         <v>35</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2490,7 +2550,7 @@
         <v>40</v>
       </c>
       <c r="D77" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2513,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E78">
         <v>40</v>
@@ -2533,7 +2593,7 @@
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -2550,7 +2610,7 @@
         <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E80">
         <v>15</v>
@@ -2570,7 +2630,7 @@
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2584,7 +2644,7 @@
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2601,7 +2661,7 @@
         <v>25</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -2641,7 +2701,7 @@
         <v>35</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E85">
         <v>20</v>
@@ -2667,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E86">
         <v>35</v>
@@ -2687,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -2701,7 +2761,7 @@
         <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -2715,7 +2775,7 @@
         <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -2735,7 +2795,7 @@
         <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -2749,7 +2809,7 @@
         <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -2780,7 +2840,7 @@
         <v>35</v>
       </c>
       <c r="D93" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -2797,7 +2857,7 @@
         <v>40</v>
       </c>
       <c r="D94" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -2814,7 +2874,7 @@
         <v>45</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -2831,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E96">
         <v>50</v>
@@ -2851,7 +2911,7 @@
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -2871,7 +2931,7 @@
         <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -2891,7 +2951,7 @@
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -2911,7 +2971,7 @@
         <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -2925,7 +2985,7 @@
         <v>25</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -2939,7 +2999,7 @@
         <v>30</v>
       </c>
       <c r="D102" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -2959,7 +3019,7 @@
         <v>35</v>
       </c>
       <c r="D103" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -2985,7 +3045,7 @@
         <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -3005,7 +3065,7 @@
         <v>45</v>
       </c>
       <c r="D105" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -3031,7 +3091,7 @@
         <v>50</v>
       </c>
       <c r="D106" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -3051,7 +3111,7 @@
         <v>55</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -3086,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E108">
         <v>10</v>
@@ -3106,7 +3166,7 @@
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E109">
         <v>10</v>
@@ -3129,7 +3189,7 @@
         <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E110">
         <v>5</v>
@@ -3149,7 +3209,7 @@
         <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -3169,7 +3229,7 @@
         <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -3189,7 +3249,7 @@
         <v>25</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -3206,7 +3266,7 @@
         <v>30</v>
       </c>
       <c r="D114" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -3226,7 +3286,7 @@
         <v>35</v>
       </c>
       <c r="D115" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H115">
         <v>15</v>
@@ -3243,7 +3303,7 @@
         <v>40</v>
       </c>
       <c r="D116" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E116">
         <v>5</v>
@@ -3272,7 +3332,7 @@
         <v>45</v>
       </c>
       <c r="D117" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F117">
         <v>5</v>
@@ -3301,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E118">
         <v>15</v>
@@ -3338,7 +3398,7 @@
         <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -3352,13 +3412,13 @@
         <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -3372,13 +3432,13 @@
         <v>20</v>
       </c>
       <c r="D122" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -3392,7 +3452,7 @@
         <v>25</v>
       </c>
       <c r="D123" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -3406,7 +3466,7 @@
         <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E124">
         <v>5</v>
@@ -3426,7 +3486,7 @@
         <v>35</v>
       </c>
       <c r="D125" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -3435,7 +3495,7 @@
         <v>5</v>
       </c>
       <c r="J125" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -3487,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="Q127" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -3501,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E128">
         <v>30</v>
@@ -3521,7 +3581,7 @@
         <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -3535,7 +3595,7 @@
         <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E130">
         <v>3</v>
@@ -3552,7 +3612,7 @@
         <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -3569,7 +3629,7 @@
         <v>20</v>
       </c>
       <c r="D132" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -3583,7 +3643,7 @@
         <v>25</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E133">
         <v>2</v>
@@ -3600,7 +3660,7 @@
         <v>30</v>
       </c>
       <c r="D134" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -3614,7 +3674,7 @@
         <v>35</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E135">
         <v>4</v>
@@ -3686,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E138">
         <v>35</v>
@@ -3706,7 +3766,7 @@
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -3720,10 +3780,10 @@
         <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:19">
@@ -3737,7 +3797,7 @@
         <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -3751,10 +3811,10 @@
         <v>20</v>
       </c>
       <c r="D142" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E142" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -3768,7 +3828,7 @@
         <v>25</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -3782,7 +3842,7 @@
         <v>30</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -3796,7 +3856,7 @@
         <v>35</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -3810,7 +3870,7 @@
         <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -3824,7 +3884,7 @@
         <v>45</v>
       </c>
       <c r="D147" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -3838,10 +3898,10 @@
         <v>50</v>
       </c>
       <c r="D148" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -3855,10 +3915,10 @@
         <v>55</v>
       </c>
       <c r="D149" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H149" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -3872,10 +3932,10 @@
         <v>60</v>
       </c>
       <c r="D150" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H150" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -3889,10 +3949,10 @@
         <v>65</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H151" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -3909,10 +3969,10 @@
         <v>19</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H152" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="T152">
         <v>15</v>
@@ -3932,7 +3992,7 @@
         <v>19</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K153">
         <v>1</v>
@@ -3958,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E154">
         <v>85</v>
@@ -3978,7 +4038,7 @@
         <v>5</v>
       </c>
       <c r="D155" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -3995,7 +4055,7 @@
         <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -4029,7 +4089,7 @@
         <v>20</v>
       </c>
       <c r="D158" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -4046,7 +4106,7 @@
         <v>25</v>
       </c>
       <c r="D159" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -4063,7 +4123,7 @@
         <v>30</v>
       </c>
       <c r="D160" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="161" spans="1:15">
@@ -4094,7 +4154,7 @@
         <v>40</v>
       </c>
       <c r="D162" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -4143,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="D164" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E164">
         <v>10</v>
@@ -4163,7 +4223,7 @@
         <v>5</v>
       </c>
       <c r="D165" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E165">
         <v>10</v>
@@ -4186,7 +4246,7 @@
         <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E166">
         <v>5</v>
@@ -4206,7 +4266,7 @@
         <v>15</v>
       </c>
       <c r="D167" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -4226,10 +4286,10 @@
         <v>20</v>
       </c>
       <c r="D168" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E168" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -4246,10 +4306,10 @@
         <v>25</v>
       </c>
       <c r="D169" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" spans="1:15">
@@ -4263,13 +4323,13 @@
         <v>30</v>
       </c>
       <c r="D170" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="171" spans="1:15">
@@ -4283,7 +4343,7 @@
         <v>35</v>
       </c>
       <c r="D171" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H171">
         <v>15</v>
@@ -4300,7 +4360,7 @@
         <v>40</v>
       </c>
       <c r="D172" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E172">
         <v>5</v>
@@ -4329,7 +4389,7 @@
         <v>45</v>
       </c>
       <c r="D173" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F173">
         <v>5</v>
@@ -4358,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E174">
         <v>3</v>
@@ -4378,7 +4438,7 @@
         <v>5</v>
       </c>
       <c r="D175" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -4395,7 +4455,7 @@
         <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177" spans="1:15">
@@ -4409,7 +4469,7 @@
         <v>15</v>
       </c>
       <c r="D177" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -4426,7 +4486,7 @@
         <v>20</v>
       </c>
       <c r="D178" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -4443,7 +4503,7 @@
         <v>25</v>
       </c>
       <c r="D179" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -4460,7 +4520,7 @@
         <v>30</v>
       </c>
       <c r="D180" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E180">
         <v>5</v>
@@ -4512,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="D182" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E182">
         <v>20</v>
@@ -4532,7 +4592,7 @@
         <v>5</v>
       </c>
       <c r="D183" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="184" spans="1:15">
@@ -4546,7 +4606,7 @@
         <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -4563,7 +4623,7 @@
         <v>15</v>
       </c>
       <c r="D185" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="186" spans="1:15">
@@ -4577,7 +4637,7 @@
         <v>20</v>
       </c>
       <c r="D186" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E186">
         <v>3</v>
@@ -4594,7 +4654,7 @@
         <v>25</v>
       </c>
       <c r="D187" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -4663,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="D190" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E190">
         <v>25</v>
@@ -4683,10 +4743,10 @@
         <v>5</v>
       </c>
       <c r="D191" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H191" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192" spans="1:15">
@@ -4700,10 +4760,10 @@
         <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E192" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -4717,7 +4777,7 @@
         <v>15</v>
       </c>
       <c r="D193" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -4731,7 +4791,7 @@
         <v>20</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -4745,7 +4805,7 @@
         <v>25</v>
       </c>
       <c r="D195" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -4762,7 +4822,7 @@
         <v>8</v>
       </c>
       <c r="I196" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -4776,7 +4836,7 @@
         <v>35</v>
       </c>
       <c r="D197" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -4807,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E199">
         <v>40</v>
@@ -4827,7 +4887,7 @@
         <v>5</v>
       </c>
       <c r="D200" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -4844,10 +4904,10 @@
         <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -4861,10 +4921,10 @@
         <v>15</v>
       </c>
       <c r="D202" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -4878,10 +4938,10 @@
         <v>20</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H203" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -4895,10 +4955,10 @@
         <v>25</v>
       </c>
       <c r="D204" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -4912,10 +4972,10 @@
         <v>30</v>
       </c>
       <c r="D205" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H205" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -4929,10 +4989,10 @@
         <v>35</v>
       </c>
       <c r="D206" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -4952,7 +5012,7 @@
         <v>8</v>
       </c>
       <c r="I207" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -4966,10 +5026,10 @@
         <v>45</v>
       </c>
       <c r="H208" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I208" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="209" spans="1:24">
@@ -4983,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="D209" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E209">
         <v>20</v>
@@ -4992,7 +5052,7 @@
         <v>5</v>
       </c>
       <c r="S209" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="U209">
         <v>2</v>
@@ -5009,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="D210" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E210">
         <v>10</v>
@@ -5032,7 +5092,7 @@
         <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E211">
         <v>5</v>
@@ -5058,7 +5118,7 @@
         <v>2</v>
       </c>
       <c r="H212" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="213" spans="1:24">
@@ -5072,7 +5132,7 @@
         <v>20</v>
       </c>
       <c r="D213" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F213">
         <v>2</v>
@@ -5089,7 +5149,7 @@
         <v>25</v>
       </c>
       <c r="D214" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="215" spans="1:24">
@@ -5103,10 +5163,10 @@
         <v>30</v>
       </c>
       <c r="D215" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H215" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="216" spans="1:24">
@@ -5120,7 +5180,7 @@
         <v>35</v>
       </c>
       <c r="D216" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H216">
         <v>5</v>
@@ -5140,22 +5200,22 @@
         <v>40</v>
       </c>
       <c r="D217" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E217" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F217" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H217">
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M217" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="218" spans="1:24">
@@ -5172,7 +5232,7 @@
         <v>8</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -5181,7 +5241,7 @@
         <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O218">
         <v>1</v>
@@ -5221,7 +5281,7 @@
         <v>5</v>
       </c>
       <c r="D220" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E220">
         <v>2</v>
@@ -5247,7 +5307,7 @@
         <v>10</v>
       </c>
       <c r="D221" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F221">
         <v>5</v>
@@ -5270,7 +5330,7 @@
         <v>15</v>
       </c>
       <c r="D222" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="223" spans="1:24">
@@ -5284,7 +5344,7 @@
         <v>20</v>
       </c>
       <c r="D223" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="224" spans="1:24">
@@ -5344,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="D226" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E226">
         <v>35</v>
@@ -5370,7 +5430,7 @@
         <v>5</v>
       </c>
       <c r="D227" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -5387,7 +5447,7 @@
         <v>10</v>
       </c>
       <c r="D228" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E228">
         <v>5</v>
@@ -5416,7 +5476,7 @@
         <v>15</v>
       </c>
       <c r="D229" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -5534,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="D234" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E234">
         <v>45</v>
@@ -5577,7 +5637,7 @@
         <v>10</v>
       </c>
       <c r="D236" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -5628,7 +5688,7 @@
         <v>25</v>
       </c>
       <c r="D239" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="240" spans="1:26">
@@ -5642,7 +5702,7 @@
         <v>30</v>
       </c>
       <c r="D240" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -5716,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="D244" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E244">
         <v>40</v>
@@ -5736,7 +5796,7 @@
         <v>5</v>
       </c>
       <c r="D245" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F245">
         <v>1</v>
@@ -5770,7 +5830,7 @@
         <v>15</v>
       </c>
       <c r="D247" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="248" spans="1:26">
@@ -5784,10 +5844,10 @@
         <v>20</v>
       </c>
       <c r="F248" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H248" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="249" spans="1:26">
@@ -5801,10 +5861,10 @@
         <v>25</v>
       </c>
       <c r="H249" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I249" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="250" spans="1:26">
@@ -5818,10 +5878,10 @@
         <v>30</v>
       </c>
       <c r="H250" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I250" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="251" spans="1:26">
@@ -5838,13 +5898,13 @@
         <v>8</v>
       </c>
       <c r="H251" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I251">
         <v>1</v>
       </c>
       <c r="Z251" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="252" spans="1:26">
@@ -5858,10 +5918,10 @@
         <v>40</v>
       </c>
       <c r="H252" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Z252" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="253" spans="1:26">
@@ -5878,7 +5938,7 @@
         <v>8</v>
       </c>
       <c r="I253" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="254" spans="1:26">
@@ -5892,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="D254" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E254">
         <v>25</v>
@@ -5901,7 +5961,7 @@
         <v>15</v>
       </c>
       <c r="S254" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="U254">
         <v>2</v>
@@ -5910,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="X254" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="255" spans="1:26">
@@ -5924,7 +5984,7 @@
         <v>5</v>
       </c>
       <c r="D255" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E255">
         <v>5</v>
@@ -5933,10 +5993,10 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="U255" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="256" spans="1:26">
@@ -5950,7 +6010,7 @@
         <v>10</v>
       </c>
       <c r="D256" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E256">
         <v>5</v>
@@ -5959,7 +6019,7 @@
         <v>2</v>
       </c>
       <c r="W256" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -5973,10 +6033,10 @@
         <v>15</v>
       </c>
       <c r="E257" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F257" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="258" spans="1:28">
@@ -5990,10 +6050,10 @@
         <v>20</v>
       </c>
       <c r="E258" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="259" spans="1:28">
@@ -6007,7 +6067,7 @@
         <v>25</v>
       </c>
       <c r="E259" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="260" spans="1:28">
@@ -6021,22 +6081,22 @@
         <v>30</v>
       </c>
       <c r="D260" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F260" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H260">
         <v>2</v>
       </c>
       <c r="I260" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="U260" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="W260" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="261" spans="1:28">
@@ -6056,7 +6116,7 @@
         <v>5</v>
       </c>
       <c r="M261" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="262" spans="1:28">
@@ -6076,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="S262" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="263" spans="1:28">
@@ -6093,13 +6153,13 @@
         <v>8</v>
       </c>
       <c r="H263" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I263">
         <v>5</v>
       </c>
       <c r="Z263" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="264" spans="1:28">
@@ -6116,7 +6176,7 @@
         <v>8</v>
       </c>
       <c r="H264" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I264">
         <v>2</v>
@@ -6136,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="D265" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E265">
         <v>15</v>
@@ -6168,7 +6228,7 @@
         <v>5</v>
       </c>
       <c r="D266" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -6232,7 +6292,7 @@
         <v>15</v>
       </c>
       <c r="D268" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E268">
         <v>5</v>
@@ -6258,7 +6318,7 @@
         <v>20</v>
       </c>
       <c r="D269" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H269">
         <v>5</v>
@@ -6304,7 +6364,7 @@
         <v>30</v>
       </c>
       <c r="D271" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E271">
         <v>5</v>
@@ -6377,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="D273" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E273">
         <v>30</v>
@@ -6406,7 +6466,7 @@
         <v>5</v>
       </c>
       <c r="D274" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F274">
         <v>2</v>
@@ -6429,7 +6489,7 @@
         <v>10</v>
       </c>
       <c r="D275" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E275">
         <v>5</v>
@@ -6458,7 +6518,7 @@
         <v>15</v>
       </c>
       <c r="D276" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -6475,7 +6535,7 @@
         <v>20</v>
       </c>
       <c r="D277" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H277">
         <v>3</v>
@@ -6498,7 +6558,7 @@
         <v>25</v>
       </c>
       <c r="D278" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -6533,7 +6593,7 @@
         <v>30</v>
       </c>
       <c r="D279" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H279">
         <v>2</v>
@@ -6582,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="D281" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E281">
         <v>20</v>
@@ -6614,7 +6674,7 @@
         <v>5</v>
       </c>
       <c r="D282" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F282">
         <v>1</v>
@@ -6631,7 +6691,7 @@
         <v>10</v>
       </c>
       <c r="D283" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -6648,7 +6708,7 @@
         <v>15</v>
       </c>
       <c r="D284" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="285" spans="1:28">
@@ -6662,7 +6722,7 @@
         <v>20</v>
       </c>
       <c r="D285" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="286" spans="1:28">
@@ -6719,7 +6779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:27">
+    <row r="289" spans="1:30">
       <c r="A289" s="1">
         <v>44621</v>
       </c>
@@ -6751,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:27">
+    <row r="290" spans="1:30">
       <c r="A290" s="1">
         <v>44621</v>
       </c>
@@ -6761,8 +6821,23 @@
       <c r="C290">
         <v>45</v>
       </c>
-    </row>
-    <row r="291" spans="1:27">
+      <c r="H290">
+        <v>1</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="X290">
+        <v>1</v>
+      </c>
+      <c r="Z290">
+        <v>1</v>
+      </c>
+      <c r="AC290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:30">
       <c r="A291" s="1">
         <v>44621</v>
       </c>
@@ -6775,8 +6850,17 @@
       <c r="I291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:27">
+      <c r="X291">
+        <v>1</v>
+      </c>
+      <c r="Z291">
+        <v>1</v>
+      </c>
+      <c r="AC291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:30">
       <c r="A292" s="1">
         <v>44621</v>
       </c>
@@ -6786,8 +6870,32 @@
       <c r="C292">
         <v>55</v>
       </c>
-    </row>
-    <row r="293" spans="1:27">
+      <c r="D292" t="s">
+        <v>47</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>1</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="X292">
+        <v>1</v>
+      </c>
+      <c r="Y292">
+        <v>1</v>
+      </c>
+      <c r="Z292">
+        <v>2</v>
+      </c>
+      <c r="AD292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:30">
       <c r="A293" s="1">
         <v>44621</v>
       </c>
@@ -6797,8 +6905,26 @@
       <c r="C293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:27">
+      <c r="D293" t="s">
+        <v>37</v>
+      </c>
+      <c r="E293">
+        <v>40</v>
+      </c>
+      <c r="F293">
+        <v>2</v>
+      </c>
+      <c r="G293">
+        <v>2</v>
+      </c>
+      <c r="H293">
+        <v>1</v>
+      </c>
+      <c r="S293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:30">
       <c r="A294" s="1">
         <v>44621</v>
       </c>
@@ -6808,8 +6934,17 @@
       <c r="C294">
         <v>5</v>
       </c>
-    </row>
-    <row r="295" spans="1:27">
+      <c r="D294" t="s">
+        <v>48</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:30">
       <c r="A295" s="1">
         <v>44621</v>
       </c>
@@ -6819,8 +6954,17 @@
       <c r="C295">
         <v>10</v>
       </c>
-    </row>
-    <row r="296" spans="1:27">
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="H295">
+        <v>1</v>
+      </c>
+      <c r="U295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:30">
       <c r="A296" s="1">
         <v>44621</v>
       </c>
@@ -6830,8 +6974,14 @@
       <c r="C296">
         <v>15</v>
       </c>
-    </row>
-    <row r="297" spans="1:27">
+      <c r="F296">
+        <v>1</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:30">
       <c r="A297" s="1">
         <v>44621</v>
       </c>
@@ -6841,8 +6991,17 @@
       <c r="C297">
         <v>20</v>
       </c>
-    </row>
-    <row r="298" spans="1:27">
+      <c r="H297">
+        <v>1</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="Z297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:30">
       <c r="A298" s="1">
         <v>44621</v>
       </c>
@@ -6852,8 +7011,20 @@
       <c r="C298">
         <v>25</v>
       </c>
-    </row>
-    <row r="299" spans="1:27">
+      <c r="H298">
+        <v>1</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
+      </c>
+      <c r="W298">
+        <v>1</v>
+      </c>
+      <c r="Z298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:30">
       <c r="A299" s="1">
         <v>44621</v>
       </c>
@@ -6863,8 +7034,17 @@
       <c r="C299">
         <v>30</v>
       </c>
-    </row>
-    <row r="300" spans="1:27">
+      <c r="H299">
+        <v>1</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="Z299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:30">
       <c r="A300" s="1">
         <v>44621</v>
       </c>
@@ -6874,8 +7054,14 @@
       <c r="C300">
         <v>35</v>
       </c>
-    </row>
-    <row r="301" spans="1:27">
+      <c r="I300">
+        <v>1</v>
+      </c>
+      <c r="Z300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:30">
       <c r="A301" s="1">
         <v>44621</v>
       </c>
@@ -6885,180 +7071,1165 @@
       <c r="C301">
         <v>40</v>
       </c>
-    </row>
-    <row r="302" spans="1:27">
+      <c r="D301" t="s">
+        <v>29</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="H301">
+        <v>1</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="Z301">
+        <v>1</v>
+      </c>
+      <c r="AD301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:30">
       <c r="A302" s="1">
         <v>44621</v>
       </c>
-    </row>
-    <row r="303" spans="1:27">
+      <c r="B302">
+        <v>5</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302" t="s">
+        <v>37</v>
+      </c>
+      <c r="E302">
+        <v>25</v>
+      </c>
+      <c r="F302">
+        <v>5</v>
+      </c>
+      <c r="G302">
+        <v>5</v>
+      </c>
+      <c r="S302">
+        <v>1</v>
+      </c>
+      <c r="U302">
+        <v>1</v>
+      </c>
+      <c r="W302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:30">
       <c r="A303" s="1">
         <v>44621</v>
       </c>
-    </row>
-    <row r="304" spans="1:27">
+      <c r="B303">
+        <v>5</v>
+      </c>
+      <c r="C303">
+        <v>5</v>
+      </c>
+      <c r="D303" t="s">
+        <v>37</v>
+      </c>
+      <c r="E303">
+        <v>10</v>
+      </c>
+      <c r="F303">
+        <v>5</v>
+      </c>
+      <c r="H303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:30">
       <c r="A304" s="1">
         <v>44621</v>
       </c>
-    </row>
-    <row r="305" spans="1:1">
+      <c r="B304">
+        <v>5</v>
+      </c>
+      <c r="C304">
+        <v>10</v>
+      </c>
+      <c r="D304" t="s">
+        <v>37</v>
+      </c>
+      <c r="E304">
+        <v>5</v>
+      </c>
+      <c r="F304">
+        <v>2</v>
+      </c>
+      <c r="W304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:35">
       <c r="A305" s="1">
         <v>44621</v>
       </c>
-    </row>
-    <row r="306" spans="1:1">
+      <c r="B305">
+        <v>5</v>
+      </c>
+      <c r="C305">
+        <v>15</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+      <c r="H305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:35">
       <c r="A306" s="1">
         <v>44621</v>
       </c>
-    </row>
-    <row r="307" spans="1:1">
+      <c r="B306">
+        <v>5</v>
+      </c>
+      <c r="C306">
+        <v>20</v>
+      </c>
+      <c r="F306">
+        <v>1</v>
+      </c>
+      <c r="G306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:35">
       <c r="A307" s="1">
         <v>44621</v>
       </c>
-    </row>
-    <row r="308" spans="1:1">
+      <c r="B307">
+        <v>5</v>
+      </c>
+      <c r="C307">
+        <v>25</v>
+      </c>
+      <c r="G307">
+        <v>1</v>
+      </c>
+      <c r="H307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:35">
       <c r="A308" s="1">
         <v>44621</v>
       </c>
-    </row>
-    <row r="309" spans="1:1">
+      <c r="B308">
+        <v>5</v>
+      </c>
+      <c r="C308">
+        <v>30</v>
+      </c>
+      <c r="H308">
+        <v>1</v>
+      </c>
+      <c r="U308">
+        <v>1</v>
+      </c>
+      <c r="W308">
+        <v>1</v>
+      </c>
+      <c r="Z308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:35">
       <c r="A309" s="1">
         <v>44621</v>
       </c>
-    </row>
-    <row r="310" spans="1:1">
+      <c r="B309">
+        <v>5</v>
+      </c>
+      <c r="C309">
+        <v>35</v>
+      </c>
+      <c r="H309">
+        <v>2</v>
+      </c>
+      <c r="I309">
+        <v>1</v>
+      </c>
+      <c r="Q309">
+        <v>1</v>
+      </c>
+      <c r="W309">
+        <v>2</v>
+      </c>
+      <c r="Z309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:35">
       <c r="A310" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="D310" t="s">
+        <v>37</v>
+      </c>
+      <c r="E310">
+        <v>10</v>
+      </c>
+      <c r="F310">
+        <v>10</v>
+      </c>
+      <c r="S310">
+        <v>2</v>
+      </c>
+      <c r="Y310">
+        <v>1</v>
+      </c>
+      <c r="AE310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:35">
       <c r="A311" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>5</v>
+      </c>
+      <c r="D311" t="s">
+        <v>40</v>
+      </c>
+      <c r="E311">
+        <v>2</v>
+      </c>
+      <c r="H311">
+        <v>95</v>
+      </c>
+      <c r="U311">
+        <v>1</v>
+      </c>
+      <c r="Y311">
+        <v>10</v>
+      </c>
+      <c r="AA311">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:35">
       <c r="A312" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>10</v>
+      </c>
+      <c r="D312" t="s">
+        <v>40</v>
+      </c>
+      <c r="H312">
+        <v>40</v>
+      </c>
+      <c r="U312">
+        <v>1</v>
+      </c>
+      <c r="X312">
+        <v>5</v>
+      </c>
+      <c r="Y312">
+        <v>10</v>
+      </c>
+      <c r="AA312">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:35">
       <c r="A313" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>15</v>
+      </c>
+      <c r="D313" t="s">
+        <v>40</v>
+      </c>
+      <c r="H313">
+        <v>2</v>
+      </c>
+      <c r="Y313">
+        <v>2</v>
+      </c>
+      <c r="AA313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:35">
       <c r="A314" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>20</v>
+      </c>
+      <c r="D314" t="s">
+        <v>23</v>
+      </c>
+      <c r="F314">
+        <v>1</v>
+      </c>
+      <c r="H314">
+        <v>1</v>
+      </c>
+      <c r="X314">
+        <v>5</v>
+      </c>
+      <c r="Y314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:35">
       <c r="A315" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315">
+        <v>25</v>
+      </c>
+      <c r="D315" t="s">
+        <v>26</v>
+      </c>
+      <c r="H315">
+        <v>5</v>
+      </c>
+      <c r="U315">
+        <v>2</v>
+      </c>
+      <c r="W315">
+        <v>2</v>
+      </c>
+      <c r="X315">
+        <v>10</v>
+      </c>
+      <c r="Y315">
+        <v>5</v>
+      </c>
+      <c r="AA315">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="316" spans="1:35">
       <c r="A316" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>30</v>
+      </c>
+      <c r="D316" t="s">
+        <v>50</v>
+      </c>
+      <c r="E316">
+        <v>10</v>
+      </c>
+      <c r="H316">
+        <v>3</v>
+      </c>
+      <c r="U316">
+        <v>15</v>
+      </c>
+      <c r="X316">
+        <v>5</v>
+      </c>
+      <c r="AF316">
+        <v>1</v>
+      </c>
+      <c r="AG316">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:35">
       <c r="A317" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>35</v>
+      </c>
+      <c r="D317" t="s">
+        <v>17</v>
+      </c>
+      <c r="F317">
+        <v>3</v>
+      </c>
+      <c r="H317">
+        <v>5</v>
+      </c>
+      <c r="V317">
+        <v>5</v>
+      </c>
+      <c r="X317">
+        <v>3</v>
+      </c>
+      <c r="AA317">
+        <v>5</v>
+      </c>
+      <c r="AG317">
+        <v>30</v>
+      </c>
+      <c r="AH317">
+        <v>10</v>
+      </c>
+      <c r="AI317">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:35">
       <c r="A318" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B318">
+        <v>2</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318" t="s">
+        <v>37</v>
+      </c>
+      <c r="E318">
+        <v>20</v>
+      </c>
+      <c r="F318">
+        <v>10</v>
+      </c>
+      <c r="S318">
+        <v>1</v>
+      </c>
+      <c r="U318">
+        <v>3</v>
+      </c>
+      <c r="Y318">
+        <v>3</v>
+      </c>
+      <c r="AE318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:35">
       <c r="A319" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B319">
+        <v>2</v>
+      </c>
+      <c r="C319">
+        <v>5</v>
+      </c>
+      <c r="D319" t="s">
+        <v>40</v>
+      </c>
+      <c r="F319">
+        <v>1</v>
+      </c>
+      <c r="H319">
+        <v>10</v>
+      </c>
+      <c r="Y319">
+        <v>5</v>
+      </c>
+      <c r="AA319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:35">
       <c r="A320" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+      <c r="C320">
+        <v>10</v>
+      </c>
+      <c r="D320" t="s">
+        <v>24</v>
+      </c>
+      <c r="E320">
+        <v>5</v>
+      </c>
+      <c r="F320">
+        <v>5</v>
+      </c>
+      <c r="H320">
+        <v>5</v>
+      </c>
+      <c r="X320">
+        <v>3</v>
+      </c>
+      <c r="Y320">
+        <v>10</v>
+      </c>
+      <c r="AA320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:38">
       <c r="A321" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321">
+        <v>15</v>
+      </c>
+      <c r="D321" t="s">
+        <v>23</v>
+      </c>
+      <c r="H321">
+        <v>1</v>
+      </c>
+      <c r="X321">
+        <v>5</v>
+      </c>
+      <c r="Y321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:38">
       <c r="A322" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B322">
+        <v>2</v>
+      </c>
+      <c r="C322">
+        <v>20</v>
+      </c>
+      <c r="D322" t="s">
+        <v>40</v>
+      </c>
+      <c r="H322">
+        <v>3</v>
+      </c>
+      <c r="Y322">
+        <v>1</v>
+      </c>
+      <c r="AA322">
+        <v>1</v>
+      </c>
+      <c r="AF322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:38">
       <c r="A323" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B323">
+        <v>2</v>
+      </c>
+      <c r="C323">
+        <v>25</v>
+      </c>
+      <c r="D323" t="s">
+        <v>24</v>
+      </c>
+      <c r="E323">
+        <v>3</v>
+      </c>
+      <c r="F323">
+        <v>1</v>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+      <c r="W323">
+        <v>1</v>
+      </c>
+      <c r="X323">
+        <v>30</v>
+      </c>
+      <c r="Y323">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="324" spans="1:38">
       <c r="A324" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B324">
+        <v>2</v>
+      </c>
+      <c r="C324">
+        <v>30</v>
+      </c>
+      <c r="D324" t="s">
+        <v>17</v>
+      </c>
+      <c r="F324">
+        <v>2</v>
+      </c>
+      <c r="H324">
+        <v>10</v>
+      </c>
+      <c r="M324">
+        <v>1</v>
+      </c>
+      <c r="X324">
+        <v>1</v>
+      </c>
+      <c r="AA324">
+        <v>2</v>
+      </c>
+      <c r="AG324">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="1:38">
       <c r="A325" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325">
+        <v>35</v>
+      </c>
+      <c r="F325">
+        <v>10</v>
+      </c>
+      <c r="H325">
+        <v>10</v>
+      </c>
+      <c r="J325">
+        <v>2</v>
+      </c>
+      <c r="AA325">
+        <v>20</v>
+      </c>
+      <c r="AG325">
+        <v>20</v>
+      </c>
+      <c r="AH325">
+        <v>1</v>
+      </c>
+      <c r="AI325">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:38">
       <c r="A326" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B326">
+        <v>2</v>
+      </c>
+      <c r="C326">
+        <v>40</v>
+      </c>
+      <c r="D326" t="s">
+        <v>17</v>
+      </c>
+      <c r="F326">
+        <v>5</v>
+      </c>
+      <c r="H326">
+        <v>10</v>
+      </c>
+      <c r="K326">
+        <v>10</v>
+      </c>
+      <c r="AG326">
+        <v>90</v>
+      </c>
+      <c r="AI326">
+        <v>60</v>
+      </c>
+      <c r="AJ326">
+        <v>2</v>
+      </c>
+      <c r="AK326">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="327" spans="1:38">
       <c r="A327" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B327">
+        <v>3</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+      <c r="D327" t="s">
+        <v>37</v>
+      </c>
+      <c r="E327">
+        <v>25</v>
+      </c>
+      <c r="F327">
+        <v>5</v>
+      </c>
+      <c r="G327">
+        <v>3</v>
+      </c>
+      <c r="S327">
+        <v>2</v>
+      </c>
+      <c r="W327">
+        <v>1</v>
+      </c>
+      <c r="X327">
+        <v>5</v>
+      </c>
+      <c r="Y327">
+        <v>5</v>
+      </c>
+      <c r="AE327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:38">
       <c r="A328" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B328">
+        <v>3</v>
+      </c>
+      <c r="C328">
+        <v>5</v>
+      </c>
+      <c r="D328" t="s">
+        <v>23</v>
+      </c>
+      <c r="H328">
+        <v>5</v>
+      </c>
+      <c r="X328">
+        <v>70</v>
+      </c>
+      <c r="Y328">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="1:38">
       <c r="A329" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B329">
+        <v>3</v>
+      </c>
+      <c r="C329">
+        <v>10</v>
+      </c>
+      <c r="D329" t="s">
+        <v>23</v>
+      </c>
+      <c r="H329">
+        <v>2</v>
+      </c>
+      <c r="X329">
+        <v>5</v>
+      </c>
+      <c r="Y329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:38">
       <c r="A330" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B330">
+        <v>3</v>
+      </c>
+      <c r="C330">
+        <v>15</v>
+      </c>
+      <c r="D330" t="s">
+        <v>23</v>
+      </c>
+      <c r="F330">
+        <v>1</v>
+      </c>
+      <c r="X330">
+        <v>40</v>
+      </c>
+      <c r="Y330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:38">
       <c r="A331" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B331">
+        <v>3</v>
+      </c>
+      <c r="C331">
+        <v>20</v>
+      </c>
+      <c r="D331" t="s">
+        <v>23</v>
+      </c>
+      <c r="X331">
+        <v>40</v>
+      </c>
+      <c r="Y331">
+        <v>1</v>
+      </c>
+      <c r="AG331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:38">
       <c r="A332" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B332">
+        <v>3</v>
+      </c>
+      <c r="C332">
+        <v>25</v>
+      </c>
+      <c r="E332">
+        <v>2</v>
+      </c>
+      <c r="H332">
+        <v>5</v>
+      </c>
+      <c r="Y332">
+        <v>1</v>
+      </c>
+      <c r="AG332">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:38">
       <c r="A333" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+      <c r="C333">
+        <v>30</v>
+      </c>
+      <c r="D333" t="s">
+        <v>26</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="X333">
+        <v>1</v>
+      </c>
+      <c r="AA333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:38">
       <c r="A334" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B334">
+        <v>3</v>
+      </c>
+      <c r="C334">
+        <v>35</v>
+      </c>
+      <c r="D334" t="s">
+        <v>17</v>
+      </c>
+      <c r="H334">
+        <v>10</v>
+      </c>
+      <c r="Y334">
+        <v>5</v>
+      </c>
+      <c r="AA334">
+        <v>5</v>
+      </c>
+      <c r="AG334">
+        <v>70</v>
+      </c>
+      <c r="AK334">
+        <v>1</v>
+      </c>
+      <c r="AL334">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:38">
       <c r="A335" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1">
+        <v>44671</v>
+      </c>
+      <c r="B335">
+        <v>3</v>
+      </c>
+      <c r="C335">
+        <v>40</v>
+      </c>
+      <c r="D335" t="s">
+        <v>17</v>
+      </c>
+      <c r="H335">
+        <v>3</v>
+      </c>
+      <c r="X335">
+        <v>5</v>
+      </c>
+      <c r="Y335">
+        <v>4</v>
+      </c>
+      <c r="AA335">
+        <v>1</v>
+      </c>
+      <c r="AG335">
+        <v>20</v>
+      </c>
+      <c r="AI335">
+        <v>5</v>
+      </c>
+      <c r="AJ335">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:38">
       <c r="A336" s="1">
-        <v>44621</v>
+        <v>44671</v>
+      </c>
+      <c r="B336">
+        <v>3</v>
+      </c>
+      <c r="C336">
+        <v>45</v>
+      </c>
+      <c r="D336" t="s">
+        <v>17</v>
+      </c>
+      <c r="H336">
+        <v>20</v>
+      </c>
+      <c r="X336">
+        <v>3</v>
+      </c>
+      <c r="Y336">
+        <v>5</v>
+      </c>
+      <c r="AA336">
+        <v>5</v>
+      </c>
+      <c r="AG336">
+        <v>40</v>
+      </c>
+      <c r="AI336">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:38">
+      <c r="A337" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B337">
+        <v>3</v>
+      </c>
+      <c r="C337">
+        <v>50</v>
+      </c>
+      <c r="D337" t="s">
+        <v>17</v>
+      </c>
+      <c r="H337">
+        <v>10</v>
+      </c>
+      <c r="Y337">
+        <v>10</v>
+      </c>
+      <c r="AA337">
+        <v>15</v>
+      </c>
+      <c r="AG337">
+        <v>100</v>
+      </c>
+      <c r="AH337">
+        <v>15</v>
+      </c>
+      <c r="AI337">
+        <v>30</v>
+      </c>
+      <c r="AJ337">
+        <v>20</v>
+      </c>
+      <c r="AK337">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="338" spans="1:38">
+      <c r="A338" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+      <c r="C338">
+        <v>55</v>
+      </c>
+      <c r="D338" t="s">
+        <v>17</v>
+      </c>
+      <c r="F338">
+        <v>3</v>
+      </c>
+      <c r="X338">
+        <v>5</v>
+      </c>
+      <c r="Y338">
+        <v>10</v>
+      </c>
+      <c r="AA338">
+        <v>30</v>
+      </c>
+      <c r="AG338">
+        <v>90</v>
+      </c>
+      <c r="AJ338">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="1:38">
+      <c r="A339" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B339">
+        <v>3</v>
+      </c>
+      <c r="C339">
+        <v>60</v>
+      </c>
+      <c r="D339" t="s">
+        <v>17</v>
+      </c>
+      <c r="F339">
+        <v>3</v>
+      </c>
+      <c r="H339">
+        <v>5</v>
+      </c>
+      <c r="Y339">
+        <v>20</v>
+      </c>
+      <c r="AA339">
+        <v>10</v>
+      </c>
+      <c r="AG339">
+        <v>40</v>
+      </c>
+      <c r="AI339">
+        <v>10</v>
+      </c>
+      <c r="AJ339">
+        <v>5</v>
+      </c>
+      <c r="AK339">
+        <v>20</v>
+      </c>
+      <c r="AL339">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:38">
+      <c r="A340" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B340">
+        <v>3</v>
+      </c>
+      <c r="C340">
+        <v>65</v>
+      </c>
+      <c r="D340" t="s">
+        <v>17</v>
+      </c>
+      <c r="F340">
+        <v>10</v>
+      </c>
+      <c r="H340">
+        <v>10</v>
+      </c>
+      <c r="X340">
+        <v>10</v>
+      </c>
+      <c r="Y340">
+        <v>3</v>
+      </c>
+      <c r="AA340">
+        <v>30</v>
+      </c>
+      <c r="AG340">
+        <v>50</v>
+      </c>
+      <c r="AJ340">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341" spans="1:38">
+      <c r="A341" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+      <c r="C341">
+        <v>70</v>
+      </c>
+      <c r="D341" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG341">
+        <v>95</v>
+      </c>
+      <c r="AH341">
+        <v>10</v>
+      </c>
+      <c r="AI341">
+        <v>60</v>
+      </c>
+      <c r="AJ341">
+        <v>20</v>
+      </c>
+      <c r="AK341">
+        <v>30</v>
+      </c>
+      <c r="AL341">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
